--- a/results/chybi_prednasejici.xlsx
+++ b/results/chybi_prednasejici.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="84">
   <si>
     <t>katedra</t>
   </si>
@@ -242,9 +242,6 @@
   </si>
   <si>
     <t>'RNDr. Jan Krejčí, Ph.D.'</t>
-  </si>
-  <si>
-    <t>2776</t>
   </si>
   <si>
     <t>'RNDr. Jan Krejčí, Ph.D.' (100)</t>
@@ -276,9 +273,6 @@
   </si>
   <si>
     <t>Mgr.</t>
-  </si>
-  <si>
-    <t>0</t>
   </si>
 </sst>
 </file>
@@ -355,16 +349,16 @@
     <tableColumn id="10" name="minObsazeni" dataDxfId="0"/>
     <tableColumn id="11" name="garanti" dataDxfId="0"/>
     <tableColumn id="12" name="garantiSPodily" dataDxfId="0"/>
-    <tableColumn id="13" name="garantiUcitIdno" dataDxfId="0"/>
+    <tableColumn id="13" name="garantiUcitIdno" dataDxfId="1"/>
     <tableColumn id="14" name="prednasejici" dataDxfId="0"/>
     <tableColumn id="15" name="prednasejiciSPodily" dataDxfId="0"/>
-    <tableColumn id="16" name="prednasejiciUcitIdno" dataDxfId="0"/>
+    <tableColumn id="16" name="prednasejiciUcitIdno" dataDxfId="1"/>
     <tableColumn id="17" name="cvicici" dataDxfId="0"/>
     <tableColumn id="18" name="cviciciSPodily" dataDxfId="0"/>
-    <tableColumn id="19" name="cviciciUcitIdno" dataDxfId="0"/>
+    <tableColumn id="19" name="cviciciUcitIdno" dataDxfId="1"/>
     <tableColumn id="20" name="seminarici" dataDxfId="0"/>
     <tableColumn id="21" name="seminariciSPodily" dataDxfId="0"/>
-    <tableColumn id="22" name="seminariciUcitIdno" dataDxfId="0"/>
+    <tableColumn id="22" name="seminariciUcitIdno" dataDxfId="1"/>
     <tableColumn id="23" name="schvalujiciUznani" dataDxfId="0"/>
     <tableColumn id="24" name="schvalujiciUznaniUcitIdno" dataDxfId="0"/>
     <tableColumn id="25" name="examinatori" dataDxfId="0"/>
@@ -408,7 +402,7 @@
     <tableColumn id="63" name="urovenNastavena" dataDxfId="0"/>
     <tableColumn id="64" name="urovenVypoctena" dataDxfId="0"/>
     <tableColumn id="65" name="automatickyUznavatZppZk" dataDxfId="0"/>
-    <tableColumn id="66" name="hodZaSemKombForma" dataDxfId="0"/>
+    <tableColumn id="66" name="hodZaSemKombForma" dataDxfId="1"/>
     <tableColumn id="67" name="aMax" dataDxfId="0"/>
     <tableColumn id="68" name="bMax" dataDxfId="0"/>
     <tableColumn id="69" name="cMax" dataDxfId="0"/>
@@ -952,23 +946,27 @@
       <c r="L2" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="M2" s="1" t="s">
-        <v>76</v>
+      <c r="M2" s="2">
+        <v>2776</v>
       </c>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
+      <c r="P2" s="2">
+        <v>0</v>
+      </c>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
+      <c r="S2" s="2">
+        <v>0</v>
+      </c>
       <c r="T2" s="1" t="s">
         <v>75</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="V2" s="1" t="s">
         <v>76</v>
+      </c>
+      <c r="V2" s="2">
+        <v>2776</v>
       </c>
       <c r="W2" s="1"/>
       <c r="X2" s="1"/>
@@ -988,44 +986,44 @@
         <v>4</v>
       </c>
       <c r="AJ2" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AK2" s="2">
         <v>0</v>
       </c>
       <c r="AL2" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AM2" s="2">
         <v>2</v>
       </c>
       <c r="AN2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AO2" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="AO2" s="1" t="s">
+      <c r="AP2" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="AP2" s="1" t="s">
-        <v>80</v>
       </c>
       <c r="AQ2" s="1" t="s">
         <v>74</v>
       </c>
       <c r="AR2" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS2" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="AS2" s="1" t="s">
-        <v>82</v>
-      </c>
       <c r="AT2" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AU2" s="1"/>
       <c r="AV2" s="1"/>
       <c r="AW2" s="1"/>
       <c r="AX2" s="1"/>
       <c r="AY2" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AZ2" s="1"/>
       <c r="BA2" s="1" t="s">
@@ -1052,13 +1050,13 @@
       </c>
       <c r="BK2" s="1"/>
       <c r="BL2" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="BM2" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="BN2" s="1" t="s">
-        <v>85</v>
+      <c r="BN2" s="2">
+        <v>0</v>
       </c>
       <c r="BO2" s="1"/>
       <c r="BP2" s="1"/>

--- a/results/chybi_prednasejici.xlsx
+++ b/results/chybi_prednasejici.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="87">
   <si>
     <t>katedra</t>
   </si>
@@ -242,6 +242,12 @@
   </si>
   <si>
     <t>'RNDr. Jan Krejčí, Ph.D.'</t>
+  </si>
+  <si>
+    <t>[2776]</t>
+  </si>
+  <si>
+    <t>None</t>
   </si>
   <si>
     <t>'RNDr. Jan Krejčí, Ph.D.' (100)</t>
@@ -273,6 +279,9 @@
   </si>
   <si>
     <t>Mgr.</t>
+  </si>
+  <si>
+    <t>[0]</t>
   </si>
 </sst>
 </file>
@@ -349,16 +358,16 @@
     <tableColumn id="10" name="minObsazeni" dataDxfId="0"/>
     <tableColumn id="11" name="garanti" dataDxfId="0"/>
     <tableColumn id="12" name="garantiSPodily" dataDxfId="0"/>
-    <tableColumn id="13" name="garantiUcitIdno" dataDxfId="1"/>
+    <tableColumn id="13" name="garantiUcitIdno" dataDxfId="0"/>
     <tableColumn id="14" name="prednasejici" dataDxfId="0"/>
     <tableColumn id="15" name="prednasejiciSPodily" dataDxfId="0"/>
-    <tableColumn id="16" name="prednasejiciUcitIdno" dataDxfId="1"/>
+    <tableColumn id="16" name="prednasejiciUcitIdno" dataDxfId="0"/>
     <tableColumn id="17" name="cvicici" dataDxfId="0"/>
     <tableColumn id="18" name="cviciciSPodily" dataDxfId="0"/>
-    <tableColumn id="19" name="cviciciUcitIdno" dataDxfId="1"/>
+    <tableColumn id="19" name="cviciciUcitIdno" dataDxfId="0"/>
     <tableColumn id="20" name="seminarici" dataDxfId="0"/>
     <tableColumn id="21" name="seminariciSPodily" dataDxfId="0"/>
-    <tableColumn id="22" name="seminariciUcitIdno" dataDxfId="1"/>
+    <tableColumn id="22" name="seminariciUcitIdno" dataDxfId="0"/>
     <tableColumn id="23" name="schvalujiciUznani" dataDxfId="0"/>
     <tableColumn id="24" name="schvalujiciUznaniUcitIdno" dataDxfId="0"/>
     <tableColumn id="25" name="examinatori" dataDxfId="0"/>
@@ -402,7 +411,7 @@
     <tableColumn id="63" name="urovenNastavena" dataDxfId="0"/>
     <tableColumn id="64" name="urovenVypoctena" dataDxfId="0"/>
     <tableColumn id="65" name="automatickyUznavatZppZk" dataDxfId="0"/>
-    <tableColumn id="66" name="hodZaSemKombForma" dataDxfId="1"/>
+    <tableColumn id="66" name="hodZaSemKombForma" dataDxfId="0"/>
     <tableColumn id="67" name="aMax" dataDxfId="0"/>
     <tableColumn id="68" name="bMax" dataDxfId="0"/>
     <tableColumn id="69" name="cMax" dataDxfId="0"/>
@@ -946,27 +955,27 @@
       <c r="L2" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="M2" s="2">
-        <v>2776</v>
+      <c r="M2" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
-      <c r="P2" s="2">
-        <v>0</v>
+      <c r="P2" s="1" t="s">
+        <v>77</v>
       </c>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
-      <c r="S2" s="2">
-        <v>0</v>
+      <c r="S2" s="1" t="s">
+        <v>77</v>
       </c>
       <c r="T2" s="1" t="s">
         <v>75</v>
       </c>
       <c r="U2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="V2" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="V2" s="2">
-        <v>2776</v>
       </c>
       <c r="W2" s="1"/>
       <c r="X2" s="1"/>
@@ -986,44 +995,44 @@
         <v>4</v>
       </c>
       <c r="AJ2" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AK2" s="2">
         <v>0</v>
       </c>
       <c r="AL2" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AM2" s="2">
         <v>2</v>
       </c>
       <c r="AN2" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AO2" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AP2" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AQ2" s="1" t="s">
         <v>74</v>
       </c>
       <c r="AR2" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AS2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AT2" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="AS2" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="AT2" s="1" t="s">
-        <v>78</v>
       </c>
       <c r="AU2" s="1"/>
       <c r="AV2" s="1"/>
       <c r="AW2" s="1"/>
       <c r="AX2" s="1"/>
       <c r="AY2" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AZ2" s="1"/>
       <c r="BA2" s="1" t="s">
@@ -1050,13 +1059,13 @@
       </c>
       <c r="BK2" s="1"/>
       <c r="BL2" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="BM2" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="BN2" s="2">
-        <v>0</v>
+      <c r="BN2" s="1" t="s">
+        <v>86</v>
       </c>
       <c r="BO2" s="1"/>
       <c r="BP2" s="1"/>

--- a/results/chybi_prednasejici.xlsx
+++ b/results/chybi_prednasejici.xlsx
@@ -256,12 +256,12 @@
     <t>HOD/SEM</t>
   </si>
   <si>
-    <t>1. Mezipředmětové přesahy IKT do oborových didaktik (1 týden)
-2. Výukové aplikace a online služby pro podporu oborových didaktik (1 týden)
-3. Využití IKT v jiných didaktikách (3 týdny)
-a. čtenářská gramotnost
-b. matematická gramotnost
-c. finanční gramotnost
+    <t>1. Mezipředmětové přesahy IKT do oborových didaktik (1 týden)_x000D_
+2. Výukové aplikace a online služby pro podporu oborových didaktik (1 týden)_x000D_
+3. Využití IKT v jiných didaktikách (3 týdny)_x000D_
+a. čtenářská gramotnost_x000D_
+b. matematická gramotnost_x000D_
+c. finanční gramotnost_x000D_
 d. přírodovědná gramotnost</t>
   </si>
   <si>
@@ -271,7 +271,7 @@
     <t>Kombinovaná</t>
   </si>
   <si>
-    <t>- tvořivá práce ve skupině,
+    <t>- tvořivá práce ve skupině,_x000D_
 - prezentace výsledků řešení projektu před ostatními skupinami.</t>
   </si>
   <si>

--- a/results/chybi_prednasejici.xlsx
+++ b/results/chybi_prednasejici.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
   <si>
     <t>katedra</t>
   </si>
@@ -221,76 +221,12 @@
   </si>
   <si>
     <t>cMax</t>
-  </si>
-  <si>
-    <t>KI</t>
-  </si>
-  <si>
-    <t>KVICT</t>
-  </si>
-  <si>
-    <t>Využití ICT ve výuce</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>NE</t>
-  </si>
-  <si>
-    <t>'RNDr. Jan Krejčí, Ph.D.'</t>
-  </si>
-  <si>
-    <t>[2776]</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>'RNDr. Jan Krejčí, Ph.D.' (100)</t>
-  </si>
-  <si>
-    <t>HOD/SEM</t>
-  </si>
-  <si>
-    <t>1. Mezipředmětové přesahy IKT do oborových didaktik (1 týden)_x000D_
-2. Výukové aplikace a online služby pro podporu oborových didaktik (1 týden)_x000D_
-3. Využití IKT v jiných didaktikách (3 týdny)_x000D_
-a. čtenářská gramotnost_x000D_
-b. matematická gramotnost_x000D_
-c. finanční gramotnost_x000D_
-d. přírodovědná gramotnost</t>
-  </si>
-  <si>
-    <t>Zápočet</t>
-  </si>
-  <si>
-    <t>Kombinovaná</t>
-  </si>
-  <si>
-    <t>- tvořivá práce ve skupině,_x000D_
-- prezentace výsledků řešení projektu před ostatními skupinami.</t>
-  </si>
-  <si>
-    <t>Čeština</t>
-  </si>
-  <si>
-    <t>Mgr.</t>
-  </si>
-  <si>
-    <t>[0]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="#,##0;[Red]-#,##0"/>
-  </numFmts>
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -320,14 +256,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -705,7 +635,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BQ2"/>
+  <dimension ref="A1:BQ1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -920,157 +850,6 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:69">
-      <c r="A2" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C2" s="2">
-        <v>2023</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="H2" s="2">
-        <v>2</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="W2" s="1"/>
-      <c r="X2" s="1"/>
-      <c r="Y2" s="1"/>
-      <c r="Z2" s="1"/>
-      <c r="AA2" s="1"/>
-      <c r="AB2" s="1"/>
-      <c r="AC2" s="1"/>
-      <c r="AD2" s="1"/>
-      <c r="AE2" s="1"/>
-      <c r="AF2" s="1"/>
-      <c r="AG2" s="1"/>
-      <c r="AH2" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AI2" s="2">
-        <v>4</v>
-      </c>
-      <c r="AJ2" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="AK2" s="2">
-        <v>0</v>
-      </c>
-      <c r="AL2" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="AM2" s="2">
-        <v>2</v>
-      </c>
-      <c r="AN2" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="AO2" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="AP2" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="AQ2" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AR2" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="AS2" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AT2" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="AU2" s="1"/>
-      <c r="AV2" s="1"/>
-      <c r="AW2" s="1"/>
-      <c r="AX2" s="1"/>
-      <c r="AY2" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="AZ2" s="1"/>
-      <c r="BA2" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="BB2" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="BC2" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="BD2" s="1"/>
-      <c r="BE2" s="1"/>
-      <c r="BF2" s="1"/>
-      <c r="BG2" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="BH2" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="BI2" s="1"/>
-      <c r="BJ2" s="2">
-        <v>0</v>
-      </c>
-      <c r="BK2" s="1"/>
-      <c r="BL2" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="BM2" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="BN2" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="BO2" s="1"/>
-      <c r="BP2" s="1"/>
-      <c r="BQ2" s="1"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/results/chybi_prednasejici.xlsx
+++ b/results/chybi_prednasejici.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1076" uniqueCount="288">
   <si>
     <t>katedra</t>
   </si>
@@ -221,12 +221,1149 @@
   </si>
   <si>
     <t>cMax</t>
+  </si>
+  <si>
+    <t>KPRF</t>
+  </si>
+  <si>
+    <t>KGEO</t>
+  </si>
+  <si>
+    <t>KBI</t>
+  </si>
+  <si>
+    <t>KI</t>
+  </si>
+  <si>
+    <t>KFY</t>
+  </si>
+  <si>
+    <t>KCH</t>
+  </si>
+  <si>
+    <t>CNB</t>
+  </si>
+  <si>
+    <t>KMA</t>
+  </si>
+  <si>
+    <t>0101</t>
+  </si>
+  <si>
+    <t>0159</t>
+  </si>
+  <si>
+    <t>B210</t>
+  </si>
+  <si>
+    <t>B414</t>
+  </si>
+  <si>
+    <t>BK201</t>
+  </si>
+  <si>
+    <t>BP201</t>
+  </si>
+  <si>
+    <t>BTE</t>
+  </si>
+  <si>
+    <t>E100</t>
+  </si>
+  <si>
+    <t>E101</t>
+  </si>
+  <si>
+    <t>E105</t>
+  </si>
+  <si>
+    <t>K201</t>
+  </si>
+  <si>
+    <t>K410</t>
+  </si>
+  <si>
+    <t>K607</t>
+  </si>
+  <si>
+    <t>K608</t>
+  </si>
+  <si>
+    <t>K609</t>
+  </si>
+  <si>
+    <t>KOOD</t>
+  </si>
+  <si>
+    <t>KVICT</t>
+  </si>
+  <si>
+    <t>M104</t>
+  </si>
+  <si>
+    <t>MA207</t>
+  </si>
+  <si>
+    <t>ME204</t>
+  </si>
+  <si>
+    <t>NA14</t>
+  </si>
+  <si>
+    <t>NME</t>
+  </si>
+  <si>
+    <t>OOD</t>
+  </si>
+  <si>
+    <t>P201</t>
+  </si>
+  <si>
+    <t>P202</t>
+  </si>
+  <si>
+    <t>P210</t>
+  </si>
+  <si>
+    <t>P402</t>
+  </si>
+  <si>
+    <t>P514</t>
+  </si>
+  <si>
+    <t>P609</t>
+  </si>
+  <si>
+    <t>P618</t>
+  </si>
+  <si>
+    <t>Úvod do meteorologie</t>
+  </si>
+  <si>
+    <t>Smart City</t>
+  </si>
+  <si>
+    <t>Euroregiony a přeshraniční spolupráce</t>
+  </si>
+  <si>
+    <t>Ekonomická geografie II</t>
+  </si>
+  <si>
+    <t>Chemie a fyzika živých soustav</t>
+  </si>
+  <si>
+    <t>Bezpečnostní technologie</t>
+  </si>
+  <si>
+    <t>Human Evolutionary Psychology</t>
+  </si>
+  <si>
+    <t>Sociobiology</t>
+  </si>
+  <si>
+    <t>General Zoology</t>
+  </si>
+  <si>
+    <t>Genetika</t>
+  </si>
+  <si>
+    <t>PVK - Automatizační systémy II</t>
+  </si>
+  <si>
+    <t>Evoluční biologie</t>
+  </si>
+  <si>
+    <t>PVK-Kvantová fyzika II</t>
+  </si>
+  <si>
+    <t>PVK - Mikroprocesorová technika</t>
+  </si>
+  <si>
+    <t>PVK - Automatizované měřící systémy</t>
+  </si>
+  <si>
+    <t>Objektově orientovaný návrh</t>
+  </si>
+  <si>
+    <t>Využití ICT ve výuce</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Metody charakterizace látek a materiálů
+</t>
+  </si>
+  <si>
+    <t>Metody sledování zvířat</t>
+  </si>
+  <si>
+    <t>Mikrofluid. systémy a biologická analýza</t>
+  </si>
+  <si>
+    <t>Studium povrchů pomocí jaderných metod</t>
+  </si>
+  <si>
+    <t>Numerické metody</t>
+  </si>
+  <si>
+    <t>Fylogeneze a systém vyšších rostlin</t>
+  </si>
+  <si>
+    <t>Makromolekulární chemie</t>
+  </si>
+  <si>
+    <t>Teorie relativity</t>
+  </si>
+  <si>
+    <t>Evoluční psychologie člověka</t>
+  </si>
+  <si>
+    <t>Sociobiologie</t>
+  </si>
+  <si>
+    <t>Automatizační systémy II</t>
+  </si>
+  <si>
+    <t>Mikroprocesorová technika</t>
+  </si>
+  <si>
+    <t>Automatizované měřící systémy</t>
+  </si>
+  <si>
+    <t>Mikrofluidní systémy a biologická analýza</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>NE</t>
+  </si>
+  <si>
+    <t>'doc. Mgr. Pavel Raška, Ph.D.'</t>
+  </si>
+  <si>
+    <t>'Mgr. Vladan Hruška, Ph.D.'</t>
+  </si>
+  <si>
+    <t>'RNDr. Oldřich Benada, CSc.'</t>
+  </si>
+  <si>
+    <t>'RNDr. Jan Krejčí, Ph.D.'</t>
+  </si>
+  <si>
+    <t>'RNDr. Jan Ipser, CSc.'</t>
+  </si>
+  <si>
+    <t>'RNDr. Petr Kubera, Ph.D.'</t>
+  </si>
+  <si>
+    <t>'doc. Ing. Jan Čermák, CSc.'</t>
+  </si>
+  <si>
+    <t>'Mgr. Marcel Štofik, Ph.D.'</t>
+  </si>
+  <si>
+    <t>'doc. RNDr. Karel Kubát, CSc.'</t>
+  </si>
+  <si>
+    <t>'doc. Ing. Jaromír Lederer, CSc.'</t>
+  </si>
+  <si>
+    <t>'Mgr. Vladan Hruška, Ph.D.' (100)</t>
+  </si>
+  <si>
+    <t>'RNDr. Oldřich Benada, CSc.' (100)</t>
+  </si>
+  <si>
+    <t>'RNDr. Jan Ipser, CSc.' (100)</t>
+  </si>
+  <si>
+    <t>'doc. RNDr. Karel Kubát, CSc.' (100)</t>
+  </si>
+  <si>
+    <t>'doc. Ing. Jaromír Lederer, CSc.' (100)</t>
+  </si>
+  <si>
+    <t>[1434]</t>
+  </si>
+  <si>
+    <t>[4222]</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>[1983]</t>
+  </si>
+  <si>
+    <t>[2776]</t>
+  </si>
+  <si>
+    <t>[930]</t>
+  </si>
+  <si>
+    <t>[650]</t>
+  </si>
+  <si>
+    <t>[1064]</t>
+  </si>
+  <si>
+    <t>[1503]</t>
+  </si>
+  <si>
+    <t>[279]</t>
+  </si>
+  <si>
+    <t>[1543]</t>
+  </si>
+  <si>
+    <t>'Mgr. Vladan Hruška, Ph.D.', 'Mgr. Zdeňka Smutná'</t>
+  </si>
+  <si>
+    <t>'Mgr. Vladan Hruška, Ph.D.' (100), 'Mgr. Zdeňka Smutná' (100)</t>
+  </si>
+  <si>
+    <t>'Mgr. Marcel Štofik, Ph.D.' (100)</t>
+  </si>
+  <si>
+    <t>[4222, 7684]</t>
+  </si>
+  <si>
+    <t>'RNDr. Jan Krejčí, Ph.D.' (100)</t>
+  </si>
+  <si>
+    <t>KI/ZKB, KI/KZKB</t>
+  </si>
+  <si>
+    <t>KBI/K101</t>
+  </si>
+  <si>
+    <t>KI/KOONV</t>
+  </si>
+  <si>
+    <t>KI/OONV</t>
+  </si>
+  <si>
+    <t>KBI/BK102, KBI/BP102, KBI/KB102, KBI/PB102, KBI/P102</t>
+  </si>
+  <si>
+    <t>KCH/P301, KCH/P309, KCH/P321, KCH/P325</t>
+  </si>
+  <si>
+    <t>KPRF/0102</t>
+  </si>
+  <si>
+    <t>KI/ASK</t>
+  </si>
+  <si>
+    <t>KBI/K608</t>
+  </si>
+  <si>
+    <t>KBI/P504, KBI/P521</t>
+  </si>
+  <si>
+    <t>KBI/P615</t>
+  </si>
+  <si>
+    <t>KCH/P614</t>
+  </si>
+  <si>
+    <t>'Vanolo, A. (2014). The Smart City as Disciplinary Strategy. Urban Studies 51, č. 5. https://doi.org/10.1177%2F0042098013494427. ',
+'UK Government Department for Business, Innovation and Skills (2013): Smart cities - background paper. https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/246019/bis-13-1209-smart-cities-background-paper-digital.pdf. ',
+'EU (2018): Chytrý venkov: obnova a rozvoj služeb na venkově. EU Rural Review, č. 26. http://eagri.cz/public/web/mze/venkov/prioritni-temata-site/chytry-venkov/eu-rural-review-c-26-chytry-venkov.html. '</t>
+  </si>
+  <si>
+    <t>'JEŘÁBEK, M., DOKOUPIL, J. HAVLÍČEK, T. České pohraničí - bariéra nebo prostor zprostředkování?. ',
+'JEŘÁBEK, M. (ed.). Geografická analýza pohraničí ČR. Working Papers 11/99, 180 s., Sociologický ústav AV ČR, Praha. 2000. ',
+'GABBE, J., von MALCHUS, V., MARTINOS, H. Praktický průvodce pro přeshraniční spolupráci LACE. Brusel, 2000. ',
+'GELLNER, A. Národy a nacionalismus. Praha: Josef Hříbal. ',
+'COX, K. Political geography: territory, state, and society. Oxford, 2002. ',
+'MIKŠÍČEK, P. a kol. Zmizelé Sudety. Domažlice, 2006. '</t>
+  </si>
+  <si>
+    <t>'Coe, N., Kelly, P., Yeung, H. Economic Geohraphy: A Contemporary Introduction. 2013. ',
+'Mackinnon, D., Cumbers, A. (2007). An Introduction to Economic Geography: Globalization, Uneven Development and Place. Pearson Education Limited, Harlow. ISBN 978-0-13-129316-8. ',
+'WOKOUN, René, KLÍMA, Jan a kol. Ekonomika v prostoru. Praha: Linde Praha a.s., 2008, 202 s. ISBN 978-80-7201-698-3. '</t>
+  </si>
+  <si>
+    <t>'Campbel, N.A. &amp; Reece, J.B. Biologie. Computer Press, 2006. ',
+'B, Johnson A., Lewis J., Raff M., Roberts K. and Walter P. Molecular Biology ofthe Cell. Garland Science, Taylor &amp; Francis Group, New York, 2002. ',
+'Tarábek P., Červinková P. Odmaturuj z fyziky. Dodaktis. 2004. ',
+'Benešová M., Satrapová H. Odmaturuj z chemie. Didaktis. 2002. ',
+'Geoffrey L Zubay, William W. Parson, Dennis E. Vance. Principles of Biochemistry. William C Brown Pub., 1995. ',
+'Vacík, J. a kol. Přehled středoškolské chemie. Praha: SPN. 1990. ',
+'Učebnice fyziky pro gymnázia. ',
+'Učebnice chemie pro gymnázia. ',
+'Alberts, B. a kol. Základy buněčné biologie. Espero Publishing, Ústí nad Labem., 1998. ',
+'Voet D., Voetová J. Biochemie, Victoria Publishing Praha, 1995. Praha, 1995. ',
+'Voet D., Voet J. Biochemistry. 3rd Edition. John Wiley&amp;Sons, Ind. 2005. ',
+'http://users.rcn.com/jkimball.ma.ultranet/BiologyPages/W/Welcome.html',
+'http://www.biology.arizona.edu/DEFAULT.html',
+'http://www.biology-online.org/tutorials/home.htm',
+'http://www.ipl.org/div/subject/browse/sci06.00.00/',
+'http://www.ncbi.nlm.nih.gov/About/primer/index.html',
+'http://biomech.ftvs.cuni.cz/pbpk/kompendium/biomechanika/index.php',
+'http://physics.nist.gov/cuu/Constants/index.html',
+'http://physics.nist.gov/cuu/Units/index.html',
+'http://www.converter.cz/',
+'http://www.rwc.uc.edu/koehler/biophys/text.html',
+'http://physics.nist.gov/PhysRefData/PerTable/index.html',
+'http://www.chem.ubc.ca/courseware/pH/launch.html',
+'http://www.indstate.edu/thcme/mwking/',
+'Brdička, R., Dvořák, J. Základy fyzikální chemie. Academia Praha. 1997. '</t>
+  </si>
+  <si>
+    <t>'Sanders C. Analýza sítí a řešení problémů v programu Wireshark. Computer Press, 2012. ISBN 978-80-251-3718-5.',
+'Broad, J., Bindner, A. Hacking with Kali: practical penetration testing techniques. Waltham, MA: Syngress, 2014. ISBN 978-0-12-407749-2. ',
+'Orebaugh, A. Wireshark a Ethereal: kompletní průvodce analýzou a diagnostikou sítí. Brno: Computer Press, 2008. ISBN 978-80-251-2048-4. ',
+'Forshaw, J. Attacking network protocols: a hacker s guide to capture, analysis, and exploitation. San Francisco: No Starch Press, 2018. ISBN 978-1-59327-750-5. ',
+'Stallings, W. Cryptography and network security: principles and practice. Seventh edition. Boston: Pearson, 2017. Global edition. ISBN 978-1-292-15858-7. ',
+'Lehto, M., Neittaanmäki, P., ed. Cyber security: analytics, technology and automation. Cham: Springer, 2015. Intelligent systems, control and automation: science and engineering, Volume 78. ISBN 978-3-319-18301-5. ',
+'Kolouch, J. CyberCrime. Praha: CZ.NIC, z.s.p.o., 2016. CZ.NIC, 14. publikace. ISBN 978-80-88168-15-7. ',
+'Diogenes, Y., Ozkaya, E. Cybersecurity ? attack and defense strategies: infrastructure security with Red Team and Blue Team tactics. Birmingham: Packt, 2018. ISBN 978-1-78847-529-7. ',
+'Glenny, M. Temný trh: kyberzloději, kyberpolicisté a vy. Praha: Argo, 2013. Zip (31). ISBN 978-80-7363-522-0. ',
+'Hoopes, J. Virtualization for Security, Including Sandboxng, Disaster Recovery, High Availability, Forensic Analysis, and Honepotting. SYNGRESS, 2009, ISBN 978-1-59749-305-5. ',
+'Maisner, M., Vlachová, B. Zákon o kybernetické bezpečnosti: komentář. Praha: Wolters Kluwer, 2015. Komentáře Wolters Kluwer. ISBN 978-80-7478-817-8. '</t>
+  </si>
+  <si>
+    <t>'Barret L, Dunbar R, Lycett JP. Human evolutionary psychology. NJ, US Princeton University Press. (2002). ',
+'Manning A a Dawkins, M.S. 2009. An Introduction to animal behavior. Fifth edn. New York: Cambridge University Press. ',
+'Alcock J, 2003. The Triumph of Sociobilogy. New York: Oxford University Press. '</t>
+  </si>
+  <si>
+    <t>'Alcock J. The Triumph of Sociobiology. New York: Oxford University Press, vybrané kapitoly z E O Wilson. ',
+'Flegr J. Frozen evolution. ',
+'E O Wilson. Sociobiology. The Belknap press of Harward University Press, London, England 2000. '</t>
+  </si>
+  <si>
+    <t>'http://biology.ujep.cz/vyuka/',
+'Snustad D. P., Simmons, M. J. Genetika. Masarykova Univerzita, Brno 2009. ',
+'Nečásek, J., Cetl, I. Obecná genetika. SPN Praha. 1978. ',
+'Ipser J. Úlohy a praktická cvičení z genetiky, PF UJEP, Ústí nad Labem. 1991. ',
+'Rosypal, S. Úvod do molekulární biologie. Brno. 1997. ',
+'Rosypal S. a kol. Úvod do molekulární biologie I.- IV. díl+ Dodatek. ',
+'Rosypal S. a kol. Úvod do molekulární biologie I.-III. Academia, Praha. 2000. ',
+'http://biology.ujep.cz/vyuka/',
+'Ipser J. Základy genetiky. Ústav přírodních věd Ústí n.L. 2005. ',
+'Chloupek O. Genetická diverzita, šlechtění a semenářství. Academia, Praha 2008. ',
+'Relichová J. Genetika populací. Masarykova Univerzita, Brno 2009. ',
+'Ridley M. Genom, Portál, Praha. 2001. ',
+'Vondrejs V., Storchová Z. Genové inženýrství I-II. 1999. ',
+'Vondrejs V. Genové inženýrství l, UK Karolinum, Prah. 1997. ',
+'Vojtíšková M. Klinická a molekulární genetika, Brno. 1999. ',
+'Nussbaum R. Klinická genetika. Triton, Praha 2004. ',
+'Hatina J, Sykes B. Lékařská genetika, Academia, Praha. 1999. ',
+'Rosypal S. a kol. Obecná bakteriologie. 1981. ',
+'Kočová M., Nováková M. Vybrané úlohy ke cvičením z genetiky, Karolinum, Praha. 1997. ',
+'http://genetika.wz.cz',
+'Alberts, B. a kol. Základy buněčné biologie. Espero Publishing, Ústí nad Labem., 1998. ',
+'Alberts B. Základy buněčné biologie. Espero, 1998. '</t>
+  </si>
+  <si>
+    <t>'Flegr J. Evoluční biologie. Academia Praha, 2005. ',
+'Flegr J. Evoluční biologie. Academia Praha, 2005. ',
+'Rosypal S. a kol. Fylogeneze, systém a biologie organismů. SPN Praha, 1992. ',
+'Rosypal S. a kol. Fylogeneze, systém a biologie organismů. SPN Praha, 1992. ',
+'Rosypal a kol. Nový přehled biologie. 2003. ',
+'Rosypal S. a kol. Nový přehled biologie. 2003. ',
+'http://biology.ujep.cz/vyuka',
+'Dawkins, R. Boží blud. Academia, Praha 2009. ',
+'Mayr, E. Co je evoluce? Academia, Praha 2009. ',
+'Ohno, S. Evoluce genovou duplikací. Academia, Praha 1975. ',
+'Lovelock, J.:. Gaia: Živoucí planeta, Praha: MF, 1994. ',
+'Dostál P. a kol. Historický vývoj organismů. UK Praha, 2004. ',
+'Dostál P. a kol. Historický vývoj organismů. UK Praha, 2004. ',
+'Dostál P. a kol. Historický vývoj organismů. UK Praha, 2004. ',
+'null',
+'Zrzavý J., Storch D., Mihulka S. Jak se dělá evoluce. Paseka Praha, 2004. ',
+'Zrzavý, J., Storch, D., Mihulka, S. Jak se dělá evoluce. Paseka, Praha 2004. ',
+'Vácha, M. O. Návrat ke stromu života - evoluce a křesťanství. Cesta, Brno 2005. ',
+'Kovář L. Nevyřešné otazníky evoluce. Rubico, Praha 2003. ',
+'Darwin, Ch. O pohlavním výběru. Academia, Praha 2005. ',
+'Darwin Ch. O vzniku druhů přírodním výběrem. Praha, 1953. ',
+'Markoš A. Povstávání živého tvaru. Vesmír Praha, 1998. ',
+'Dawkins, R. Příběh předka. Academia, Praha 2008. ',
+'Dunbar R. Příběh rodu Homo. Academia, Praha 2009. ',
+'Dawkins R. Sobecký gen. Mladá Fronta Praha. 1998. ',
+'Margulisová L. Symbiotická planeta. Academia Praha, 2004. ',
+'Margulisová, L. Symbiotická planeta. Academia, Praha 2004. ',
+'Moreland, J. P., Reynolds, J. M. Třikrát evoluce versus stvoření. Návrat domů, Praha 2004. ',
+'Přívratský, V. Tvar a prostředí v lidské evoluci. Univerzita Karlova, Praha 2003. ',
+'Tresmontant, C. Základy teologie. Barrister  Principal, Brno 1995. ',
+'Flegr J. Zamrzlá evoluce. Academia Praha, 2006. '</t>
+  </si>
+  <si>
+    <t>'Fowler, M. Destilované UML. Grada Publishing, Praha, 2009. ISBN 978-80-247-2062-3. ',
+'Neustadt, I., Arlow, J. UML 2 a unifikovaný proces vývoje aplikací. Computer Press, Brno, 2008. ISBN 978-80-251-1503-9. ',
+'Bureš, M., Renda, M., Doležel, M., Svoboda, P. a kol. Efektivní testování softwaru: klíčové otázky pro efektivitu testovacího procesu. Praha: Grada, 2016. Profesionál. ISBN 978-80-247-5594-6. ',
+'Buchalcevová, A., Stanovská, I. Příklady modelů analýzy a návrhu aplikace v UML. Praha: Oeconomica, 2013. Vysokoškolská učebnice. ISBN 978-80-245-1922-7. ',
+'Fakhroutdinov, K. The Unified Modeling Language. The Unified Modeling Language [online]. [cit. 2020-02-05]. '</t>
+  </si>
+  <si>
+    <t>'FRANSSILA, Sami. Introduction to microfabrication. 2nd ed. Chichester, West Sussex [England]: John Wiley &amp; Sons, 2010. ISBN 978-0-470-74983-8. ',
+'LEE, Sang-Joon John a Narayanan SUNDARARAJAN. Microfabrication for microfluidics. Boston: Artech House, 2010. Integrated microsystems series. ISBN 978-1-59693-471-9. ',
+'DIXIT, Chandra K a Ajeet Kumar KAUSHIK. Microfluidics for biologists. New York, NY: Springer Science+Business Media, 2016. ISBN 978-3-319-40035-8. ',
+'BERTHIER, Jean a Pascal SILBERZAN. Microfluidics for biotechnology. 2nd ed. Boston: Artech House, 2010. ISBN 978-1-59693-443-6. ',
+'BADILESCU, Simona a Muthukumaran PACKIRISAMY. Biomems: science and engineering perspectives. Boca Raton, FL: CRC Press, 2011. ISBN 978-1-4398-9116-2. ',
+'Další literatura, zejména ve formě přehledových článků, bude součástí pracovních protokolů. ',
+'FOLCH I FOLCH, Albert. Introduction to BioMEMS. Boca Raton, FL: CRC Press, 2016. ISBN 978-1-4665-0938-2. ',
+'IANNONE, Eugenio. Labs on chip principles, design, and technology. Boca Raton, FL: CRC Press, 2015. ISBN 978-1-4665-6073-4. '</t>
+  </si>
+  <si>
+    <t>'Quarteroni, A., Sacco, R., Saleri, F. Numerical mathematics. Springer, 2000. ISBN 978-3-540-34658-6.',
+'Ralston, A. Základy numerické matematiky. Praha, Academia, 1973. ',
+'Segethová, J. Základy numerické matematiky. Karolinum, Praha, 2000. ISBN 80-7184-596-5.',
+'Ižaríková, G., Lascsáková, M. Numerická matematika v Exceli. Technická univerzita v Košiciach, Košice, 2016. ISBN 978-80-553-3057-0.'</t>
+  </si>
+  <si>
+    <t>'Rosypal a kol. Nový přehled biologie. 2003. ',
+'Hendrych R. Systém a evoluce vyšších rostlin.- 517 str., SPN Praha. 1979. ',
+'Mártonfi P. Systematika cievnatých rastlín. Košice 2006. ',
+'Novák F. A. Vyšší rostliny. - 987 str., Academia Praha. 1972. ',
+'http://biology.ujep.cz/vyuka/',
+'Rosypal S. Fylogeneze, systém a biologie organismů.SPN Praha: 744pp. 1992. ',
+'Bremer K. et al. Introduction to Phylogeny and Systematics of Flowering Plants. Uppsala, 2003. ',
+'Kubát K. (ed.) et al. Klíč ke květeně ČR. Academia Praha. 2002. ',
+'Slavík J. /red./. Květena České republiky. Vol. 1-. Praha, 1988-. ',
+'Stuessy T.F. Horändl E., Mayer V. Plant Systematics. A half -century of progress. 1950. ',
+'Judd W.S. et al. Plant Systematics. A phalogenetic approach. Sinnauer Associates Sunderland. 2002. ',
+'Briggs D. et Walters S. M. Proměnlivost a evoluce rostlin. - 531str., Univerzita Palackého v Olomouci. 2001. ',
+'Cronquist A. The evolution and classification of flowering plants. Ed. 2. New York. 1988. ',
+'Friedman W. E. et Floyd S. K. The origin of flowering plants and their reproductive biology - a tale of two phylogenies. - Evolution 55: 217-231. 2001. '</t>
+  </si>
+  <si>
+    <t>'Snustad D. P., Simmons, M. J. Genetika. Masarykova Univerzita, Brno 2009. ',
+'Ipser J. Úlohy a praktická cvičení z genetiky, PF UJEP, Ústí nad Labem. 1991. ',
+'Rosypal S. a kol. Úvod do molekulární biologie I.- IV. díl+ Dodatek. ',
+'Rosypal S. a kol. Úvod do molekulární biologie I.-III. Academia, Praha. 2000. ',
+'Ipser J. Základy genetiky. Ústav přírodních věd Ústí n.L. 2005. ',
+'Chloupek O. Genetická diverzita, šlechtění a semenářství. Academia, Praha 2008. ',
+'Relichová J. Genetika populací. Masarykova Univerzita, Brno 2009. ',
+'Vondrejs V. Genové inženýrství l, UK Karolinum, Prah. 1997. ',
+'Vojtíšková M. Klinická a molekulární genetika, Brno. 1999. ',
+'Nussbaum R. Klinická genetika. Triton, Praha 2004. ',
+'Nečásek, J., Cetl, I. Obecná genetika. SPN Praha. 1978. ',
+'Kočová M., Nováková M. Vybrané úlohy ke cvičením z genetiky, Karolinum, Praha. 1997. ',
+'Alberts B. Základy buněčné biologie. Espero, 1998. '</t>
+  </si>
+  <si>
+    <t>'LEDERER J. Makromolekulární chemie. Vypracované studijní opory. PřF UJEP, 2012. ',
+'Mleziva J., Šňupárek J. Polymery. SOBOTÁLES, 2000. ',
+'Ducháček V. Polymery-výroba,vlastnosti,zpracování. VŠCHT, 2005. ',
+'Ducháček V. Základní pojmy z chemie polymerů. VŠCHT, 2004. '</t>
+  </si>
+  <si>
+    <t>'Snustad D. P., Simmons, M. J. Genetika. Masarykova Univerzita, Brno 2009. ',
+'Vojtíšková M. Klinická a molekulární genetika, Brno. 1999. ',
+'Ipser J. Úlohy a praktická cvičení z genetiky, PF UJEP, Ústí nad Labem. 1991. ',
+'Rosypal S. a kol. Úvod do molekulární biologie I.- IV. díl+ Dodatek. ',
+'Rosypal S. a kol. Úvod do molekulární biologie I.-III. Academia, Praha. 2000. ',
+'Ipser J. Základy genetiky. Ústav přírodních věd Ústí n.L. 2005. ',
+'Chloupek O. Genetická diverzita, šlechtění a semenářství. Academia, Praha 2008. ',
+'Reischig J. Genetická praktika, Karolinum, Praha. 1994. ',
+'Ferák v., Sršeň Š. Genetika člověka, SPN, Bratislava. 1990. ',
+'Relichová J. Genetika populací. Masarykova Univerzita, Brno 2009. ',
+'Ridley M. Genom, Portál, Praha. 2001. ',
+'Vondrejs V. Genové inženýrství l, UK Karolinum, Prah. 1997. ',
+'Kapras J. a kol. Kapitoly z lékařské biologie a genetiky I. a II. díl. 1998. ',
+'Nussbaum R. Klinická genetika. Triton, Praha 2004. ',
+'Hatina J, Sykes B. Lékařská genetika, Academia, Praha. 1999. ',
+'Nečásek, J., Cetl, I. Obecná genetika. SPN Praha. 1978. ',
+'Hněvkovský P. a kol. Praktikum z lékařské biologie a genetiky, Karolinum, Praha. 1995. ',
+'Kočová M., Nováková M. Vybrané úlohy ke cvičením z genetiky, Karolinum, Praha. 1997. ',
+'Alberts B. Základy buněčné biologie. Espero, 1998. '</t>
+  </si>
+  <si>
+    <t>KBI/ME204</t>
+  </si>
+  <si>
+    <t>KFY/P606</t>
+  </si>
+  <si>
+    <t>Metody práce s textem (učebnicí, knihou)</t>
+  </si>
+  <si>
+    <t>Písemná zkouška</t>
+  </si>
+  <si>
+    <t>HOD/TYD</t>
+  </si>
+  <si>
+    <t>HOD/SEM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meteorologie je vědou o atmosféře. Studuje stav atmosféry, vazby systému s dalšími jednotkami (pedosférou, hydrosférou, kryosférou, biosférou i vnějším prostředím), které atmosféru ovlivňují, ale jsou jí zároveň ovlivňovány.
+V předmětu Úvod do meteorologie budou studenti seznámeni s meteorologií jako vědní disciplínou, s atmosférou a jejími součástmi, zářením v atmosféře. Poskytnut bude přehled základních meteorologických prvků a jevů, včetně modelů všeobecné cirkulace atmosféry, tlakových útvarů, atmosférických front, oblaků, atmosférických srážek. 
+Pozornost bude věnována i periodickým a aperiodickým změnám jednotlivých prvků a polí v atmosféře. Využity budou převážně metody synoptické meteorologie, které umožňují výklad jednotlivých principů s omezeným nasazením matematického aparátu. 
+Vynechány nebudou ani způsoby antropogenní ovlivnění atmosféry, a to zejména v krátkodobém režimu (dlouhodobější vlivy spadají spíš do klimatologie). V této souvislosti se zaměříme také na meteorologické podmínky ovlivňující prostorový rozptyl látek znečišťujících ovzduší. 
+</t>
+  </si>
+  <si>
+    <t>Smart city/region/komunita je entita která používá různé typy senzorů pro sběr dat za účelem získání informací pro efektivnější řízení vlastních zdrojů. Tato data mohou být sbírána od občanů, přístrojů se zaměřením na dopravní toky, výrobu a dodávky elektrické energie, vody, hospodaření s odpady, vymáhání zákonů, informační systémy, školy, knihovny, nemocnice a další komunitní služby. Kromě toho mohou být i Smart řešení, která nemají technickou povahu. Kurz bude studenty seznamovat s nejnovějšími poznatky v oblasti konceptu Smart doplněnými o aktuální výstupy projektu týmu UJEP a případových studií z dalších světových měst, které se snaží inovativním způsobem řešit soudobé problémy veřejného prostoru. Kurz bude stavět na interdisciplinárním přístupu.</t>
+  </si>
+  <si>
+    <t>Cílem předmětu je seznámit posluchače s příčinami vzniku evropské přeshraniční spolupráce, s jejím základním institucionálním zázemím a hlavními aktéry. Budou představeny základní teorie, koncepty a pojmy související s nacionalismem a jeho negativními vlivy na společnost. Zároveň budou demonstrovány možnosti, jak překonat omezující funkci hranic národních států především na příkladu Česka.</t>
+  </si>
+  <si>
+    <t>Kurz řeší problematiku globalizace s dopadem na geografii ekonomických aktivit. Zvláštní pozornost je věnována konceptu globálních komoditních řetězců, nadnárodním korporacím a geografii služeb. Dále se pak zaměřuje na individuální rovinu - konkrétně na geografické apsekty témat jako jsou ekonomika a rasa či etnikum, gender.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seminář je určen pro studenty 1. ročníku, oboru biologie, studijního programu biologie. Cílem semináře je sjednocení získaných znalostí středoškolské chemie, fyziky a biologie makromolekul, které jsou nezbytné pro studium dalších biologických předmětů. Studenti by měli získat přehled o vzájemné propojenosti fyzikálních a chemických zákonů v základních biologických systémech (Makromolekuly - Buňky - Organismy).  Část semináře bude věnována moderním fyzikálním metodám pro charakterizaci struktury funkce biologických objektů.
+</t>
+  </si>
+  <si>
+    <t>Cílem předmětu je seznámit studenty s bezpečnostními technologiemi používanými v prostředí firemních systémů, jejich vývojem, funkcemi a implementací.</t>
+  </si>
+  <si>
+    <t>Cílem předmětu Evoluční psychologie člověka je naučit se základní termíny používané v tomto oboru a porozumět základním principům. To vše v rozsahu publikace Barrett L, Dunbar R., Lycett JP. Human evolutionary psychology. NJ, US: Princeton University Press. (2002). Budeme se učit základní pojmy, které se často používají.  Dále porozumíme základním evolučně biologickým principům chování. Seznámíme se s kořeny chování považovaného za takzvaně dobré či takzvaně špatné z úhlu pohledu evoluční biologie.</t>
+  </si>
+  <si>
+    <t>Cílem předmětu je naučit se, jak sociobiologie v současné době umožňuje porozumět chování z evolučně biologického hlediska (v rozsahu knihy Alcock J. The Triumph of Sociobiology. New York: Oxford University Press 2003). Seznámíme se s kritikou, kterou tento postup původně vyvolal. Naučíme se základní terminologii používanou v této oblasti. Porozumíme základním principům chování a moderním sociobiologickým náhledům.</t>
+  </si>
+  <si>
+    <t>Předmět je zaměřen na zprostředkování základních poznatků z obecné  a aplikované genetiky. Hlavní témata: genetika bakterií a virů, mimojaderná dědičnost; Aplikovaná genetika (genomika, proteomika, genové biotechnologie; genetika ve šlechtění rostlin a  živočichů; lékařská genetika).
+Tento kurz byl inovován v rámci projektu CZ.1.07/2.2.00/28.0296 "Mezioborové vazby a podpora praxe v přírodovědných a technických studijních programech UJEP"</t>
+  </si>
+  <si>
+    <t>Cílem předmětu je zprostředkovat studentům informace týkající se biologické evoluce v kontextu s chemickou evolucí a vývojem vesmíru, vztahu evolucionizmu a krecionizmu, historického vývoje evolučních teorií, mikroevoluce a makroevoluce (mechanizmy, principy, metody studia, metodologie a filozofické zobecnění), komparace evolučních a fylogenetických aspektů výsledků paleontologických a molekulárně-biologických výzkumů, aplikace evolučně-biologických poznatků ve společenské praxi.
+Tento kurz byl inovován v rámci projektu CZ.1.07/2.2.00/28.0296 "Mezioborové vazby a podpora praxe v přírodovědných a technických studijních programech UJEP"</t>
+  </si>
+  <si>
+    <t>Absolventi budou seznámeni se základní problematikou mikroprocesorové techniky, to je používanými mikroprocesory, pamětmi ROM a RAM, nezbytnými podpůrnými obvody a základy programování v JSA tak, aby byli schopni se orientovat v technických aplikacích.</t>
+  </si>
+  <si>
+    <t>Cílem předmětu je získání základních znalostí z oblasti automatizovaného měření a modelování elektronických obvodů, které umožní další samostatné prohlubování znalostí z této oblasti.</t>
+  </si>
+  <si>
+    <t>Praktický kurz je zaměřen na seznámení studentů s jednotlivými fázemi tvorby software a klade důraz na objektově orientovaný návrh a analýzu softwaru v jazyce UML (Unified Modeling Language, unifikovaný jazyk pro tvorbu diagramů) se základním přehledem využívaných metodik tvorby softwaru. Studenti budou v rámci kurzu seznámeni s jednotlivými diagramy UML ? modelování přístupu užití, základní strukturní diagramy, diagramy chování a interakce, a jejich praktické využití. Zároveň získají základní přehled přístupů a metodik tvorby softwaru.</t>
+  </si>
+  <si>
+    <t>1. Mezipředmětové přesahy IKT do oborových didaktik (1 týden)
+2. Výukové aplikace a online služby pro podporu oborových didaktik (1 týden)
+3. Využití IKT v jiných didaktikách (3 týdny)
+a. čtenářská gramotnost
+b. matematická gramotnost
+c. finanční gramotnost
+d. přírodovědná gramotnost</t>
+  </si>
+  <si>
+    <t>Studenti se teoreticky seznámí s metodami sledování zvířat - monitoring, sledování a počítání populací, fyziologické a genetické metody, a to jak obecně, tak i u jednotlivých skupin; teoreticky i prakticky se předmět zaměří na etologické pozorování zvířecího chování, následné zpracování a interpretaci dat.</t>
+  </si>
+  <si>
+    <t>Cílem kurzu je seznámit studenty s aktuálními trendy mikrotechnologií využitelnými v oblasti biologických věd a věd hraničních s biologií. Studenti se seznámí s významem miniaturizace pro vývoj experimentálních metod a na praktických příkladech získají přehled o možnostech využití mikrofluidních systémů v bioaplikacích s různým zaměřením (např. kultivace buněčných kultur, manipulace s buňkami, tvorba koncentračních gradientů pro experiment, povrchové modifikace pro imobilizace bioaktivních látek, příprava microarrays apod.). V průběhu kurzu si studenti prakticky osvojí vybrané techniky z workflow výroby mikrofluidních systémů a provedou vybrané experimenty související s daným tématem.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Přednáška je zaměřena na fyzikální popis hlavních procesů probíhající při interakci nabitých částic s pevnou látkou, kdy dochází k řadě elastických a inelastických procesů, kterých se účastní dopadající ionty a atomy terčového materiálu. Dále budou součástí přednášky jaderné analytické metody využívající neutronů pro prvkovou analýzu tj. neutronová aktivační analýza (NAA) a hloubkové profilování neutronovými svazky (NDP) na základě jaderných reakcí s lehkými jádry zkoumaného materiálu. Součástí přednášky je základní popis těchto jevů, jejich fyzikálních principů a dále použití těchto procesů pro kvalitativní a kvantitavní prvkovou analýzu materiálů. V přednášce jsou akcentovány principy a aplikace iontových analytických metod, které se používají pro studium vlastností povrchů a rozhraní pevných látek. A přímo diskutovány význačné aplikace těchto principů v metodách využívajících pro analýzu pevných látek iontové svazky v elastických procesech s terčovými jádry (RBS - Rutherfordův zpětný rozptyl, ERDA - Analýza dopředně vyražených iontů, RBS-channeling) a v inelastických procesech s atomovým obalem terčových atomů případně jaderných reakcích (PIXE - protony buzená retgenovská fluorescence, NRA - analýza pomocí jaderných reakcí). V závěru přednášky je presentován přehled metod, jejich použití a srovnání analytických možností, které poskytují (citlivost, hloubkové a plošné rozlišení, nejnižší detekovatelná dávka, informační hloubka atd.) 
+Praktické prokázání znalostí provedením měření a vypracováním protokolu/prezentace na vybrané problematice z okruhu přednášek. 
+</t>
+  </si>
+  <si>
+    <t>Studenti se seznámí se základními metodami numerické matematiky.</t>
+  </si>
+  <si>
+    <t>Studenti se seznámí s dřívějšími i současnými názory na systém vyšších rostlin a s metodikami používanými při jeho studiu. Dále budou seznámeni s charakteristikami vybraných taxonů (zpravidla čeledí) vyšších rostlin s důrazem na flóru střední Evropy, jejich hospodářským významem, postavením v ekosystémech a ekologickými nároky. Při cvičeních si  ověří své znalosti charakteristik vybraných čeledí a rodů na živém nebo herbářovém materiálu a získají základní návyky pro práci s determinačními klíči.</t>
+  </si>
+  <si>
+    <t>Kurz předpokládá znalosti z obecné a fyzikální chemie, zejména však z chemie organické. Cílem je podat základní poznatky z oblasti makromolekulární chemie se zaměřením na principy vzniku/výroby technicky významných makromolekulárních látek. Pozornost je věnována vlastnostem polymerů ve vztahu k jejich struktuře. Studenti jsou seznamováni se základními postupy a technikami výroby, zpracování a použití významných polymerů - vzniklých adičními polymeracemi, polykondenzačními a polyadičními procesy.  Diskutovány jsou možnosti zpracování odpadních plastů. Důraz je kladen na kombinaci teoretických aspektů makromolekulární chemie a praktických informací z výrob polymerů instalovaných v ČR.</t>
+  </si>
+  <si>
+    <t>Cílem tohoto předmětu je zprostředkovat studentům informace týkající se jak biologické evoluce a fylogeneze, tak ontogeneze.Evolučně-biologická témata jsou pojednána v širším kontextu s chemickou evolucí, teoriemi vývoje vesmíru a filozoficko-metodologickými aspekty</t>
+  </si>
+  <si>
+    <t>Předmět je zaměřen na zprostředkování základních poznatků z obecné a aplikované genetiky. Hlavní témata: principy a zákonitosti dědičnosti; specifika dědičnosti u virů, prokaryot a eukaryot; mimojaderná dědičnost; aplikovaná genetika (genomika, proteomika, genové biotechnologie; genetika ve šlechtění rostlin a  živočichů; lékařská genetika).</t>
+  </si>
+  <si>
+    <t>Zápočet</t>
+  </si>
+  <si>
+    <t>Zkouška</t>
+  </si>
+  <si>
+    <t>ANO</t>
+  </si>
+  <si>
+    <t>Kombinovaná</t>
+  </si>
+  <si>
+    <t>Ústní</t>
+  </si>
+  <si>
+    <t>prezence na cvičeních, aktivní účast na cvičeních, prezentace vlastního projektu</t>
+  </si>
+  <si>
+    <t>- odevzdání všech protokolů ze cvičení a jejich kvalitní zpracování_x000D_
+- úspěšně absolvovaná zkouška</t>
+  </si>
+  <si>
+    <t>Aktivní účast na přednáškách, získání 66 % bodů při písemném testu.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minimálně 60% úspěšnost v zápočtovém testu z učiva uvedeného v sylabu k předmětu. Test se skládá z odpovědí na otázky (62%), stručného popisu jevu či obrázku (13%) a výpočtu jednoduchých příkladů - roztoky, pufry, pH atd (25%).
+</t>
+  </si>
+  <si>
+    <t>Zápočet: laboratorní úloha</t>
+  </si>
+  <si>
+    <t>Studenti musí ovládat terminologii v rozsahu doporučené literatury. Dále musí být schopni tyto pojmy vysvětlit. A musí být schopni vysvětlit základní principy chování v rozsahu doporučované literatury.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alespoň 80% účast na cvičeních
+kvalitně vedené protokoly a správně vyřešené úlohy
+úspěšné absolvování minimálně 75% průběžně zadaných orientačních testů 
+Pozn.: v případě neúspěchu je možné příslušný test (příslušné testy) opakovat.
+úspěšné absolvování zápočtového testu (správné řešení minimálně z 60%)
+Pozn.: v případě neúspěchu je možné zápočtový test dvakrát opakovat.
+ústní zkouška
+</t>
+  </si>
+  <si>
+    <t>Na konzultacích jsou rámcově odpřednášena stěžejní témata (hlavní teorie biologické evoluce, mechanismy evoluce biologických systémů, mikroevoluce a makroevoluce, teorie vzniku života). Následně jsou diskutována a procvičena na cvičení řešením typových úloh k jednotlivým tematickým blokům. Získané informace si posluchači rozšíří samostudiem studijní opory, doporučené odborné literatury a dalších zdrojů. Samostudium představuje hlavní formu přípravy k zápočtu a ke zkoušce.</t>
+  </si>
+  <si>
+    <t>Aktivní účast na seminářích.
+Úspěšné splnění požadavků v písemných prověrkách.
+Vypracování zadané samostatné práce z MIT.</t>
+  </si>
+  <si>
+    <t>Aktivní účast na přednáškách a cvičeních
+Vyhotovení všech zpráv o měření
+Dosažení minimálně 60% z maximálně dosažitelného počtu bodů
+Body mohou studenti získat za :
+Vyhotovené zprávy ?hodnocení 0-30bodů
+Praktické přezkoušení + test ? hodnocení 0-70bodů</t>
+  </si>
+  <si>
+    <t>Tvorba seminární práce ? návrh a popis softwarového systému pomocí UML</t>
+  </si>
+  <si>
+    <t>- tvořivá práce ve skupině,
+- prezentace výsledků řešení projektu před ostatními skupinami.</t>
+  </si>
+  <si>
+    <t>Podmínkou udělení zápočtu je získání alespoň polovičního množství bodů ze zápočtové písemné práce, kterou studenti píšou na konci semestru.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zápočet: aktivní alespoň 75% účast na cvičeních
+předložení kvalitně zpracovaných protokolů
+zpracování a obhájení seminární práce (floristický průzkum vybrané lokality) 
+úspěšné absolvování "poznávačky" (latinská jména rostlin) 
+zkouška: v rozsahu studijních opor a přednášek
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vypracování seminární práce
+úspěšné absolvování zápočtového testu (správné řešení minimálně z 60%)
+Pozn.: v případě neúspěchu je možné zápočtový test dvakrát opakovat
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.	Historie, současnost a budoucnost meteorologie a klimatologie, atmosféra.
+2.	Tlak, hustota a proudění vzduchu (základní vlastnosti fyzikálních polí, vertikální profily).
+3.	Energie a záření v atmosféře (dopad na horní hranici atmosféry, průchod atmosférou, albedo, insolace, energetická bilance).
+4.	Teplota vzduchu, vertikální zvrstvení teploty, stabilita, resp. instabilita teplotního zvrstvení. 
+5.	Voda v atmosféře, vlhkost vzduchu, mlhy.
+6.	Oblaky (vznik, rozdělení, složení oblaků, vlastnosti základních druhů)
+7.	Atmosférické srážky (vznik srážek, rozdělení).
+8.	Tlakové útvary a jejich základní vlastnosti, vývoj a regenerace tlakových útvarů, jejich rozdělení, typické počasí v nich.
+9.	Globální cirkulační systém, místní cirkulační systémy.
+10.	Atmosférické fronty (druhy, vlastnosti, oblačné systémy a srážkové oblasti, deformace).
+11.	Předpovídání počasí v praxi (exkurze na ČHMÚ).
+12.	Meteorologické podmínky pro rozptyl škodlivin (teplotní inverze, jejich vznik, definice RP, možné imisní dopady). 
+13.	Meteorologická měření a pozorování (základy, klasická měření, organizace speciálních měření, dostupnost dat, možnosti a limity jejich použití).
+</t>
+  </si>
+  <si>
+    <t>1. Konceptualizace SMART regionu - teoretický rámec, pilíře konceptu SMART_x000D_
+2. Problémy města a fáze konceptu SMART: technology driven, City-led - Smart governance, citizen co-creation_x000D_
+3. Občanská participace_x000D_
+4. Smart economy/environment - udržitelnost a social justice, sociální inovace, lidský kapitál, sharing economy_x000D_
+5. Technologie a jejich potenciální dopady (internet jako předpoklad rozvoje, cloud computing a internet věcí)_x000D_
+6. ICT technologie ve vzdělávání a ve zdravotnictví_x000D_
+7. Samořiditelná auta; Drony;  SMART koncept v potravinovém systému_x000D_
+8. Rozptýlená výroba, decentralizované energetické systémy_x000D_
+9. Měřitelnost a hodnocení Smart city, případové studie ze zahraničních měst_x000D_
+11. Smart v Česku - česká města a venkov, seznámení s projekty_x000D_
+12. Prezentace vlastních projektů_x000D_
+13. Opakování</t>
+  </si>
+  <si>
+    <t>1. Národ, národní stát, nacionalismus_x000D_
+2. Evropská integrace, evropeizace_x000D_
+3. Politické hranice, příhraničí, hraniční efekt_x000D_
+4. České pohraničí - Sudety_x000D_
+5. Diferenciace českého pohraničí_x000D_
+6. Geografie Saska_x000D_
+7. Analýza česko-saského příhraničí_x000D_
+8. Přeshraniční interakce v EU_x000D_
+9. Přeshraniční spolupráce v EU_x000D_
+10. Euroregiony_x000D_
+11. Exkurze do terénu_x000D_
+12. Opakování_x000D_
+13. Prezentace studentů</t>
+  </si>
+  <si>
+    <t>1. Komoditní řetězce 1
+2. Komoditní řetězce 2
+3. Technologické změny
+4. Nadnárodní korporace 1
+5. Nadnárodní korporace 2
+6. Geografie spotřeby
+7. Geografie služeb
+8. Geografie maloobchodu
+9. Geografie bydlení
+10. Alternativní ekonomiky
+11. Ekonomika a gender
+12. Etnické ekonomiky
+13. Opakování</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Atributy živých systémů
+Chemické složení živých organismů, Anorganické a organické látky, Biopolymery.
+2. Chemie a fyzika - základy
+Fyzikální veličiny a měřicí jednotky, Základní chemické zákony, Stavba atomu, Stavba molekul, Hmotnost, množství, složení látek, Třídění látek, Složení soustavy, Roztoky, koncentrace, pH, Proč je nutné pracovat v experimentální biologii s přesně definovanými roztoky, Biologické pufry, Základní metody separace a kvantifikace biomolekul.
+3. Biomolekuly
+Lipidy - jednoduché a složené lipidy, izoprenoidy a steroidy,  biologické membrány, lipoidní micely, model a tvorba membránových struktur, transport membránami.
+Sacharidy - monosacharidy a jejich rozdělení, stereoizomerie, deriváty monosacharidů, alkoholy, glykosidy, estery, oligo- a polysacharidy, jejich struktura a funkce.
+Bílkoviny, jejich struktura a funkce - aminokyseliny, stereoizomerie, kódované a nekódované aminokyseliny, aminokyseliny esenciální, peptidy, peptidická vazba, sekvence aminokyselin a jejich určení, syntéza peptidů, Fyzikální a chemické vlastnosti bílkovin, konformace a její stabilita.
+Nukleové kyseliny - Složení DNA a RNA, báze, nukleotidy a nukleotidy, biosyntéza a odbourávání, síly, které podmiňují molekulární struktury, typy interakcí, slabé interakce, třídění van der Walsových systémů, struktura DNA, primární a sekundární struktura, její parametrizace, nepravidelné struktury, typologie cirkulární DNA,  faktory ovlivňující tvorbu a stabilitu nelokální NK: vodíkové vazby, stacking interakce, orientace vláken, chemická modifikace, vazba ligandu, chybné párování.
+4. Enzymy
+Chemická a enzymová katalýza, koenzymy a prostetické skupiny, enzymová kinetika, regulace enzymové aktivity: allosterická, kovalentní modifikace, součinnost enzymů, praktické využití enzymů,
+5. Bioenergetika
+Energetika enzymových reakcí, makroergické sloučeniny, respirační řetězec, oxidační fosforylace, metabolismus sacharidů, glykolýza, cyklus trikarboxylových kyselin, energetický zisk, pasteurův efekt. 
+</t>
+  </si>
+  <si>
+    <t>1. Infrastruktura PKI- základní axiomy, dig. podpis, hash funkce, využití, dig. certifikát, certifikační autorita
+2. Počítačová a datová bezpečnost ? základní obranné/ochranné technologie, techniky, nástroje, metody, životní cyklus dat, rozdělení dat, záloha a likvidace dat
+3. Principy bezpečnosti a ochrany dat v prostředí Internetu
+4. OpenSource (LinuxBased) L7 Firewall systémy (2 týdny)
+5. OpenSource (LinuxBased) zabezpečení infrastruktury (4 týdny)
+6. Úvod do hackingu, pasivní analýza zranitelností
+7. Aktivní testování systémů a využití zranitelností (3 týdny)</t>
+  </si>
+  <si>
+    <t>1.	evoluce
+2.	sdílení
+3.	výběr partnera
+4.	volba partnera
+5.	reprodukční strategie
+6.	infanticida
+7.	jazyk
+8.	svazky a sňatky
+9.	péče o potomky
+10.	kultura
+11.	mozek
+12.	naučené versus vrozené
+13.	společnost
+14.	válka a násilí</t>
+  </si>
+  <si>
+    <t>1.	skupinová selekce
+2.	altruismus
+3.	sociální chování
+4.	komunikace
+5.	teritorium
+6.	agresivita
+7.	dominance
+8.	kasty
+9.	reprodukce
+10.	konflikt pohlaví
+11.	rodičovská péče
+12.	sociální symbiosa
+13.	sociální druhy
+14.	geny a kultura</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Úvod. Princip segregace a kombinace vloh. Hybridizmus.
+Nástin historického vývoje genetiky. Základní genetické pojmy. Mendelovy principy dědičnosti. Monohybridizmus, dihybridizmus, polhybridizmus. Genotypové a štěpné poměry; šlechtitelská novinka; heterózní efekt. Základní typy dědičnosti . 
+2. Genové interakce a vazba genů. 
+Reciproká interakce, dominantní a recesivní epistáze, inhibice, komplementarita, multiplicita nekumulativní, multiplicita kumulativní s dominancí, multiplicita kumulativní bez dominance. Vazba genů.
+3. Pohlaví a dědičnost.
+Autozomy a heterochromozomy. Znaky vázané na pohlaví, pohlavím ovlivněné a pohlavím ovládané. Genetické určení pohlaví; pohlavní index, hermafroditizmus, gynandromorfizmus; sex chromatin, hypotéza Lyonové, odchylky v počtu chromozomů a jejich důsledky u člověka.
+4. Dědičnost kvantitativních znaků.
+Zvláštnosti dědičnosti kvantitativních znaků. Komponenty fenotypové variability. Heritabilita. Inbrídink.
+5. - 6. Genetika populací.
+Klasifikace populací. Hardy-Weinbergova rovnováha ve velké panmiktické populaci. Systematické procesy rušící Hardy-Weinbergovu rovnováhu (migrace, mutace, selekce). Disperzivní proces. Rovnováha v autogamní populaci. 
+7. - 8. Molekulární a buněčná genetika.
+Struktura a funkce nukleových kyselin (DNA, mRNA, tRNA, rRNA; snRNA, snoRNA, miRNA). Replikace, transkripce a translace u prokaryot a eukaryot; posttranskripční a posttranslační úpravy; regulace genové exprese u prokaryot a eukaryot; genová exprese v ontogenezi. Genetický kód. Struktura a funkce ribozomů u prokaryot a eukaryot. Molekulární struktura chromozomů a jejich proměnlivost v průběhu buněčného cyklu. Metody molekulární a buněčné genetiky (karyotypování; izolace nukleových kyselin, jejich detekce, purifikace a kvantifikace; hybridizace nukleových kyselin, bloting, FISH; amplifikace nukleových kyselin - PCR; sekvenování); využití metod molekulární a buněčné genetiky  v praxi.
+9. Biochemická genetika. Mimojaderná (cytoplazmatická) dědičnost.
+Teorie 1 gen - 1 enzym (polypeptidový řetězec); tetrádová analýza. Zvláštnosti mimojaderné dědičnosti; mitochondriální genom a genetické procesy v mitochondriích; chloroplastový genom a genetické procesy v chloroplastech. 
+10. Mutační genetika.
+Vymezení pojmů. Klasifikace mutací  a mechanizmy jejich vzniku. Klasifikace mutagenů a mechanizmus jejich účinků. Detekce mutací. Reparace mutačních změn. 
+11. Genetika prokaryot a virů.
+Struktura genomu bakterií a virů. Konjugace, transdukce, tranformace, transfekce; lytická a lyzogenní infekce; plazmidy, fágy, cosmidy - jejich význam a využití při genových manipulacích; transgenóza, klonování, genové a genomové knihovny; problematika GMO.
+12. Genetika rostlin a živočichů.
+Genetické základy šlechtění a plemenitby: typy odrůd, typy plemen; domestikace; centra původu; šlechtitelský proces; typy selekce a místo selekce ve šlechtitelském procesu; liniové, hybridní a mutační šlechtění, vzdálená hybridizace, CMS; analýza rodokmenů (plemenné knihy).
+13. Genetika člověka a základy klinické genetiky.
+Specifika studia dědičnosti u člověka; anamnéza, genealogická analýza, analýza dvojčat, cytogenetická a molekulárně genetická analýza, populační analýza. Dědičnost normálních znaků člověka a její využití v antropologii. Význam genetiky v antropologii a forenzních vědách. Příklady dědičných chorob člověka - příčiny, symptomy, typ dědičnosti, diagnostika. Genetické poradenství a prenatální diagnostika.
+14. Evoluční genetika, ekogenetika a epigenetika.
+Evoluce informačních biomakromolekul, genetického kódu a gynoforů. Úloha deterministických a stochastických populačně-genetických procesů v evoluci; Fisherův fundamentální teorém; genetické aspekty přírodního a pohlavního výběru. Místo genetiky v ekologii, tvorbě životního prostředí a ochraně genofondu. Základní epigenetické procesy a jejich role při expresi genetické informace.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Evoluce jako obecná vlastnost hmoty. Evoluce jako téma vědy, filozofie a teologie. Evoluce     na fyzikální, chemické a biologické úrovni. Vztah evoluce - fylogeneze - protobiologie. 
+2. -3. Vývoj evolučního myšlení od antiky po současnost. Charakteristika významných hypotéz a teorií biologické evoluce - Darwinova teorie přírodního výběru, syntetická teorie evoluce, evoluce genovou duplikací (Ohno), teorie sobeckého genu (Dawkins), symbiotická teorie (Margulisová), neutrální teorie (Kimura), téměř neutrální teorie (Ohtová), teorie přerušovaných rovnováh (Gould, Eldridge), zamrzlá evoluce (Flegr). Evolucionizmus versus kreacionizmus; specifické rysy soudobého kreacionizmu.
+4. Biologická evoluce - mikroevoluce a makroevoluce. Hierarchie evolučního procesu. Biologická (genetická) variabilita a polymorfismus na různých úrovních biologických systémů (molekulární, buněčná, organizmální, populační, společenstev, druhová). Koevoluce.
+5. - 7. Mechanizmy biologické evoluce. 
+A. Přírodní a pohlavní výběr v Darwinově teorii, neodarwinizmu (v syntetické teorii evoluce) a v postneodarwinizmu. 
+B. Genetický drift.
+C. Evoluční tahy (mutační, molekulární, meiotický, reparační)
+D. Další evoluční jevy a procesy: exaptace (preadaptace), konvergence (homoplázie), heterochronie, analogie versus homologie, extinkce a pseudoextinkce, evoluční omezení.
+8. Místo deterministických procesů (mutace, selekce a migrace) v evoluci biologických systémů. Migrace jednosměrná a obousměrná, migrační rychlost, migrace ve vztahu k izolaci (sub)populace; mutace jako primární událost v evoluci biologických systémů, klasifikace mutací, mutační rychlost; typy selekce, selekční koeficient, adaptivní hodnota a reprodukční zdatnost, interakce mutace a selekce; vliv migrace, mutace a selekce na genetickou strukturu populací; důsledky deterministických (adaptačních) procesů v mikroevoluci.
+9. Místo stochastických procesů v evoluci biologických systémů. Disperzivní proces v populacích; genetický drift, inbrídink; efekt zakladatele, efekt hrdla láhve; důsledky stochastických procesů v mikroevoluci.
+10 - 11. Speciace. Koncepce druhu (morfologická, fylogenetická, evoluční). Fyletická speciace (změna) versus štěpná (evoluční) speciace; typy a mechanizmy speciace (alopatrická, peripatrická, parapatrická, sympatrická; hybridní zóna, adaptivní radiace; izolace geografická a biologická; divergence a konvergence). Domestikace. 
+12. Evoluce na molekulární a buněčné úrovni. Evoluce nukleových kyselin (struktura, funkce) a genetického kódu; RNA svět, DNA svět, ribozymy; vznik a evoluce genetického kódu; evoluce genu; úloha mutace a rekombinace v evoluci - evoluce genovou duplikací (Ohno); vznik a evoluce virů, prokaryotické a eukaryotické buňky; kompartmentace eukaryotické buňky a evoluce celulárních struktur, endosymbiotická teorie (mitochondrie, plastidy); evoluce hlavních metabolických typů a dějů (fotosyntéza, respirace). 
+13. Makroevoluce biologických systémů v kontextu s geologickým vývojem Země. Nástin hlavních linií vývoje života od prekambria po kvartér (prekambrium, kambrická exploze, Ediakara, Burgessovy břidlice, interpretace paleontologického materiálu). Fylogenetické stromy - typy, interpretace, metody a postupy jejich konstrukce, využití bioinformatiky. 
+14. Protobiologie - vznik života. Hypotézy a teorie vzniku (resp. původu) života na Zemi. Teorie evoluční abiogeneze (naivn abiogeneze - panspermie, Oparinova koacervátová teorie), Millerův a Ureyův pokus, prebiotická polévka, teorie koacervátu v koacervátu (Liebl), teorie mikrosfér (Fox), teorie jílových částic (Bernal, Cairns-Smith), teorie hydrotermálních průduchů; LUCA. 
+</t>
+  </si>
+  <si>
+    <t>Úvod
+Základní pojmy - bit, byte, mikroprocesor, mikropočítač apod.
+Soustavy, převody mezi soustavami, kódy  - binární, hexadecimální, BCD kód
+Aritmetické a logické operace s binárními čísli - součet, součin
+Rozdělení mikroprocesorů
+Vývoj 
+Pro všeobecné použití, obecný ? charakteristiky
+Speciální - signálové, jednočipové
+Obecné blokové schéma mikroprocesoru
+Popis jednotlivých bloků  - ALU, Acc, registry, příznakový registr, řadič
+Zásobník, vstupy, výstupy - FIFO, LIFO
+Přerušení  - vnitřní, vnější
+Obecné blokové schéma mikropočítače
+Architektury  - von Neuman, Hardwardská ? charakteristiky, porovnání
+Popis jednotlivých částí - CPU, řadič, ROM, RAM, V/V, sběrnice 
+Rozšíření - posilovač sběrnice, D/A, A/D, čítač/časovač
+Paměťové prostory
+Tvorba adresy - segment, offset, stránka
+Organizace paměti - kapacita, organizace
+Fyzická paměť - velikost, buňka
+Ukládání dat - sudá, lichá adresa, slabika, slovo
+Sběrnice
+Adresová, datová, řídící sběrnice ? základní charakteristiky
+Systémová, privátní, lokální, globální, v/v ? základní charakteristiky
+Důležité signály  - , CS, IOW, IOR, BUSY apod.
+Podpůrné obvody neprogramovatelné
+Význam
+8202, 8212, 8216, 74244, 8286 apod. - dekodéry, porty, posilovače, oddělovače
+Princip použití ? praktická připojení, zatěžování
+Podpůrné obvody programovatelné
+Význam
+8155, 8255, 8253, 8251 (módy činnosti, programování)
+Princip použití ? praktická připojení
+Připojování k systému ? bloky pamětí, parita
+Paměti ROM
+Typy, použití (ROM, PROM, EPROM, E2PROM apod.)
+Kapacita, připojení k systému - banky pamětí
+Programování ? způsoby, mazání, stárnutí
+Stránkové ROM, klíčované apod.
+Programovatelné logické obvody ? druhy obvodů, základní charakteristiky, náhrada logického obvodu
+Paměti RAM
+Kapacita, organizace, typy (statická, dynamická)
+Statická RAM ? charakteristika, organizace, kapacita
+Dynamická RAM ? charakteristika, organizace, kapacita
+Paměťový subsystém
+Adresace - výběr. signály
+Kontrola parity ? příčná, podélná
+Výběr obvodů ? podmínky, rychlost, kapacita
+Speciální typy mikroprocesorů
+Koprocesor, blokové schéma (registry, zpracování čísel)
+Mikrořadiče ? PIC, charakteristika, typy, způsoby programování
+1.3 Jednočipové mikropočítače - MCS-51, ATMEL, 
+1.4 Přehled použití
+Programové vybavení
+JSA ? princip použití, kód, operand
+Zásady pro psaní programů - pole, návěští, kód, operand
+Překladač, linkér, vyšší programovací jazyky - C, Pascal, porovnání
+Simulátor, použití - akumulace, software, typy</t>
+  </si>
+  <si>
+    <t>Rozdělení měřících systémů ?základní topologické struktury, systémy se sběrnicí IEEE 488, systémy na bázi zásuvných karet, systémy na bázi  sběrnice VME, systémy na bázi  sběrnice VXI, rozsáhlé měřící systémy
+Stručná charakteristika a porovnání jednotlivých měřících systémů
+Standard IEEE 488.1 ? složení bajtu přenášeného po DIO vodičích, jednovodičové signály standardu IEEE 4888, přenosový cykl, vícevodičové dálkové zprávy standardu IEEE 488.1
+Standard IEEE 488.2
+     4.1. Minimální sestava funkcí rozhraní
+     4.2. Formáty dat a syntaxe ? znakové formáty, řetězcový formát, oddělovače a ukončovače
+Obecné přístrojové příkazy a dotazy
+Měřící systémy využívající rozhraní RS 232-C
+Elektrické parametry rozhraní
+ Signály rozhraní RS 232-C
+ Parametry sériového asynchronního přenosu 
+ Komunikace mezi dvěma zařízeními DTE
+ Kódování dat 
+Způsoby programování RS 232-C 
+Programování měřících systémů
+Základní typy desek rozhraní IEEE 488 
+Struktura příkazu SCPI ? systém stavových registrů, základní algoritmus spouštění,
+       struktura systému spouštění
+Programové vybavení pro generování programů pro ovládání měřících systémů, sběr a zpracování dat a modelování elektronických obvodů.
+ Jednoduché, jednoúčelové programy - BENCHLINK/ SCOPE apod.
+8.2. Vývojový systém SPICE (Simulation Program with Integrated Curcuit Emphasis)
+8.2.1. Základní vlastnosti programu SPICE ?výhody a nevýhody počítačové simulace,postup  
+         činností při modelování elektronických obvodů
+8.3. Vývojový systém Electronics Workbench ? analýza spice, měřící přístroje,obsluha 
+                                                                                 programuEWB
+8.3.1 Úlohy zaměřené na modelování elektronických obvodů programem Electronics Workbench
+8.4. Vývojový systém HP?VEE firmy Hewlett Packard
+8.4.1.  Základy programování v HP VEE
+základní pojmy, vlastní práce s objekty, obecné informace, typy pinů, datové tvary a typy, pravidla činnosti
+8.4.2. Úloha zaměřená na praktické seznámení s HP VEE 
+8.4.3. Úlohy zaměřené na vytvoření  programu pro ovládání základních laboratorních přístrojů</t>
+  </si>
+  <si>
+    <t>1. Fáze tvorby software, rizika
+2. Přehled metodik a přístupů tvorby softwaru
+3. Úvod do jazyka UML, motivace, přehled modelovacích nástrojů
+4. Stavební bloky jazyka UML (předměty, relace, diagramy)
+5. Sběr požadavků na software, modelování případu užití (diagram užití)
+6. Základní strukturní diagramy a jejich aplikace (diagram tříd, objektů apod.)
+7. Diagramy chování a jejich aplikace (aktivit, stavový apod.)
+8. Diagramy interakce a jejich aplikace (sekvenční diagram, komunikace apod.)
+9. Tvorba wireframe modelů GUI
+10. Testování software, fáze testování, metodiky testování
+11. Specializované testy- testování GUI, přehled frameworků
+12. Tvorba dokumentace, generování dokumentace
+13. Kontrola seminárních prací</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.-2. Numerické řešení algebraických rovnic a lineárních algebraických soustav. _x000D_
+3. Aproximace a interpolace funkcí._x000D_
+4. Numerická integrace. _x000D_
+5. Numerické řešení diferenciálních rovnic. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Přednášky jsou určeny pro studenty 1. ročníku, oboru biologie, studijního programu biologie. 
+Cílem přednášek je sjednocení získaných znalostí středoškolské chemie a fyziky, které jsou nezbytné pro studium dalších biologických předmětů. 
+1. Studenti by měli získat přehled o vzájemné propojenosti fyzikálních a chemických zákonů v základních biologických systémech (Makromolekuly - Buňky - Organismy). 
+2. Část přednášek bude věnována moderním fyzikálním metodám pro charakterizaci struktury a funkce biologických objektů.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tradiční a moderní metody systematické botaniky. Základní pravidla vědecké botanické nomenklatury, problémy spojené s tvorbou a používáním českých jmen rostlin. Tradiční a moderní názory na postavení cévnatých rostlin v systému organismů. Stručná charakteristika fylogeneticky významných skupin rostlin. Morfologická a fytogeografická charakteristika vybraných recentních čeledí. Hospodářsky důležité rostliny, taxony významně se uplatňující v evropské flóře. Základy fytogeografie.
+1. Úkoly systematické botaniky. Pracovní metody. Taxonomické jednotky. Základní pravidla mezinárodní nomenklatury. Česká národní jména rostlin. Vznik druhů a rodů. Charakteristika cévnatých rostlin.
+2. Rhyniophyta. Stavba těla, rozmnožování, význam
+3. Lycopodiophyta. Charakteristika, vývojové vztahy.
+4. Equisetophyta. Equisetaceae. Popis, ontogenetický cyklus.
+5.-6. Polypodiophyta. Protopteridiales - fylogenetické vztahy. Ophioglossales - aflebie, zástupci. 
+7. Lyginodendrophyta. Fylogenotické vztahy ("Kapraďosemenné" - vznik semen).
+8. Cycadophyta. Popis, zástupci, rozšíření; příbuzenské vztahy.
+9.-10. Pinophyta 
+11.  Gnetophyta. Fylogenetické vztahy, recentní výskyt, význam.
+12.-14. Magnoliophyta. Charakteristika, fylogenetické vztahy
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. 	Úvod
+Historický vývoj a vznik genetiky jakožto vědního oboru ( význam J.G.Mendela), současný vývoj a význam genetiky.
+2. - 3. Základní genetické pojmy a zákonitosti
+dědičnost, proměnlivost, gen, alela a jejich vzájemné vztahy, genotyp, fenotyp, genom, genofond, genetický kód.
+4. Cytologické základy dědičnosti
+Stavba a význam chromozomů, cytogenetika, chromozómové abnormality, dědičnost a pohlaví. Průběh mitózy a meiózy. Mutace - klasifikace, detekce, mechanismy působení.
+5.- 6. Základní genetické zákonitosti
+Mendelovy zákony a jejich odchylky, hybridismus - monohybridismus, dihybridismus, polyhybridismus.
+Vazba genů - genetické mapování, hypotézy mechanismu Crossing overu, genové interakce.
+7. Populační genetika
+Zákonitost Castle-Hardy-Weinbergova, selekce, mutace, inbred v populaci, struktura populací -genový drift, migrace.
+8.- 9. Genetika evoluce
+Teorie vzniku života, evoluce genetického informačního materiálu, selekce -přírodní výběr, náhodné procesy v evoluci, typy evoluce a její rychlost, vznik plemen a druhů, evoluce člověka a jeho genetická budoucnost.
+10.- 11. Genetika člověka
+Lidský genom, genealogie, studium dvojčat, dědičné choroby a dispozice.
+12. - 13. Lékařská genetika
+Historie, genetická péče a prevence, genetika onkogeneze, genetika transplantací.
+14. Genové inženýrství
+</t>
+  </si>
+  <si>
+    <t>Sylabus:
+1. Úvod do makromolekulární chemie 
+2. Základní mechanismy vzniku makromolekul
+3. Koordinační polymerace
+4. Techniky přípravy polymerů
+5. Nejdůležitější průmyslově používané polymer
+6. Chemie polymerů 
+7. Přírodní polymery
+8. Anorganické polymery</t>
+  </si>
+  <si>
+    <t>Studenti by měli ovládat základní matematické dovednosti užívané ve středoškolské chemii a biologii.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K tomuto kurzu není potřebný žádný podmiňující předmět.Studenti musí umět anglicky tak, aby byli schopní přečíst základní  výše uvedené knihy. Rovněž musí být schopni porozumět čtenému textu. Musí být schopní psát krátké odpovědi a vysvětlit základní principy v anglickém jazyce při testech.
+Výuka v angličtině je určena pro erasmové a zahraniční studenty. Výuka v případě malého počtu studentů probíhá formou individuálních konzultací.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Předmětu nemusí předcházet jiné kurzy.Studenti musí umět anglicky tak, aby byli schopní přečíst výše uvedenou publikaci a porozumět textu. Musí být schopní psát krátké odpovědi a vysvětlit základní principy v anglickém jazyce při testech.
+Výuka v angličtině je určena pro erasmové a zahraniční studenty. Výuka v případě malého počtu studentů probíhá formou individuálních konzultací.
+</t>
+  </si>
+  <si>
+    <t>Znalosti biologie (zejména genetiky, molekulární a buněčné biologie) a chemie v rozsahu učiva pro gymnázia.</t>
+  </si>
+  <si>
+    <t>Absolvované základní kurzy Genetika, Obecná botanika a Obecná zoologie.</t>
+  </si>
+  <si>
+    <t>Předpokládají se znalosti základních termínů z anatomie, morfologie a ekologie cévnatých rostlin</t>
+  </si>
+  <si>
+    <t>Student porozumí základní terminologii oboru, principům a přístupům v evoluční psychologii v rozsahu publikace považované za základní literaturu oboru. Bude schopen tuto terminologii používat. Rovněž bude schopen vysvětlit základní principy.</t>
+  </si>
+  <si>
+    <t>Student porozumí základní terminologii oboru, principům a přístupům v rozsahu knihy Alcock J. The Triumph of Sociobiology. New York: Oxford University Press 2003. Bude schopen tyto termíny používat. Dále bude schopen vysvětlit základní pojmy a principy.</t>
+  </si>
+  <si>
+    <t>Čeština</t>
+  </si>
+  <si>
+    <t>Angličtina</t>
+  </si>
+  <si>
+    <t>Tento kurz byl inovován v rámci projektu CZ.1.07/2.2.00/28.0296 "Mezioborové vazby a podpora praxe v přírodovědných a technických studijních programech UJEP"</t>
+  </si>
+  <si>
+    <t>bloková výuka</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>Bc.</t>
+  </si>
+  <si>
+    <t>Mgr.</t>
+  </si>
+  <si>
+    <t>[0]</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0;[Red]-#,##0"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -256,8 +1393,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -273,8 +1416,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Frame0" displayName="Frame0" ref="A1:BQ2" totalsRowShown="0">
-  <autoFilter ref="A1:BQ2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Frame0" displayName="Frame0" ref="A1:BQ32" totalsRowShown="0">
+  <autoFilter ref="A1:BQ32"/>
   <tableColumns count="69">
     <tableColumn id="1" name="katedra" dataDxfId="0"/>
     <tableColumn id="2" name="zkratka" dataDxfId="0"/>
@@ -635,7 +1778,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BQ1"/>
+  <dimension ref="A1:BQ32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -849,6 +1992,4593 @@
       <c r="BQ1" t="s">
         <v>68</v>
       </c>
+    </row>
+    <row r="2" spans="1:69">
+      <c r="A2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" s="2">
+        <v>2023</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="H2" s="2">
+        <v>3</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="1"/>
+      <c r="AB2" s="1"/>
+      <c r="AC2" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="AD2" s="1"/>
+      <c r="AE2" s="1"/>
+      <c r="AF2" s="1"/>
+      <c r="AG2" s="1"/>
+      <c r="AH2" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AI2" s="2">
+        <v>2</v>
+      </c>
+      <c r="AJ2" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AK2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL2" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AM2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN2" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AO2" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="AP2" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="AQ2" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AR2" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="AS2" s="1"/>
+      <c r="AT2" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="AU2" s="1"/>
+      <c r="AV2" s="1"/>
+      <c r="AW2" s="1"/>
+      <c r="AX2" s="1"/>
+      <c r="AY2" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="AZ2" s="1"/>
+      <c r="BA2" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BB2" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="BC2" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="BD2" s="1"/>
+      <c r="BE2" s="1"/>
+      <c r="BF2" s="1"/>
+      <c r="BG2" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BH2" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="BI2" s="1"/>
+      <c r="BJ2" s="2">
+        <v>0</v>
+      </c>
+      <c r="BK2" s="1"/>
+      <c r="BL2" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="BM2" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BN2" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="BO2" s="1"/>
+      <c r="BP2" s="1"/>
+      <c r="BQ2" s="1"/>
+    </row>
+    <row r="3" spans="1:69">
+      <c r="A3" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3" s="2">
+        <v>2023</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="H3" s="2">
+        <v>2</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1"/>
+      <c r="AB3" s="1"/>
+      <c r="AC3" s="1"/>
+      <c r="AD3" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="AE3" s="1"/>
+      <c r="AF3" s="1"/>
+      <c r="AG3" s="1"/>
+      <c r="AH3" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AI3" s="2">
+        <v>1</v>
+      </c>
+      <c r="AJ3" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AK3" s="2">
+        <v>1</v>
+      </c>
+      <c r="AL3" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AM3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN3" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AO3" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="AP3" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="AQ3" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AR3" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="AS3" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="AT3" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="AU3" s="1"/>
+      <c r="AV3" s="1"/>
+      <c r="AW3" s="1"/>
+      <c r="AX3" s="1"/>
+      <c r="AY3" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="AZ3" s="1"/>
+      <c r="BA3" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BB3" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="BC3" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="BD3" s="1"/>
+      <c r="BE3" s="1"/>
+      <c r="BF3" s="1"/>
+      <c r="BG3" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BH3" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="BI3" s="1"/>
+      <c r="BJ3" s="2">
+        <v>0</v>
+      </c>
+      <c r="BK3" s="1"/>
+      <c r="BL3" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="BM3" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BN3" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="BO3" s="1"/>
+      <c r="BP3" s="1"/>
+      <c r="BQ3" s="1"/>
+    </row>
+    <row r="4" spans="1:69">
+      <c r="A4" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" s="2">
+        <v>2023</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="H4" s="2">
+        <v>4</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="1"/>
+      <c r="AA4" s="1"/>
+      <c r="AB4" s="1"/>
+      <c r="AC4" s="1"/>
+      <c r="AD4" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="AE4" s="1"/>
+      <c r="AF4" s="1"/>
+      <c r="AG4" s="1"/>
+      <c r="AH4" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AI4" s="2">
+        <v>2</v>
+      </c>
+      <c r="AJ4" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AK4" s="2">
+        <v>1</v>
+      </c>
+      <c r="AL4" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AM4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN4" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AO4" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="AP4" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="AQ4" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="AR4" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="AS4" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="AT4" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="AU4" s="1"/>
+      <c r="AV4" s="1"/>
+      <c r="AW4" s="1"/>
+      <c r="AX4" s="1"/>
+      <c r="AY4" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="AZ4" s="1"/>
+      <c r="BA4" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BB4" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="BC4" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="BD4" s="1"/>
+      <c r="BE4" s="1"/>
+      <c r="BF4" s="1"/>
+      <c r="BG4" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BH4" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="BI4" s="1"/>
+      <c r="BJ4" s="2">
+        <v>0</v>
+      </c>
+      <c r="BK4" s="1"/>
+      <c r="BL4" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="BM4" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BN4" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="BO4" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="BP4" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="BQ4" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="5" spans="1:69">
+      <c r="A5" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" s="2">
+        <v>2023</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="H5" s="2">
+        <v>4</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="1"/>
+      <c r="Z5" s="1"/>
+      <c r="AA5" s="1"/>
+      <c r="AB5" s="1"/>
+      <c r="AC5" s="1"/>
+      <c r="AD5" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="AE5" s="1"/>
+      <c r="AF5" s="1"/>
+      <c r="AG5" s="1"/>
+      <c r="AH5" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AI5" s="2">
+        <v>2</v>
+      </c>
+      <c r="AJ5" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AK5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL5" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AM5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN5" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AO5" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="AP5" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="AQ5" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AR5" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="AS5" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="AT5" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="AU5" s="1"/>
+      <c r="AV5" s="1"/>
+      <c r="AW5" s="1"/>
+      <c r="AX5" s="1"/>
+      <c r="AY5" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="AZ5" s="1"/>
+      <c r="BA5" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BB5" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="BC5" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="BD5" s="1"/>
+      <c r="BE5" s="1"/>
+      <c r="BF5" s="1"/>
+      <c r="BG5" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BH5" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="BI5" s="1"/>
+      <c r="BJ5" s="2">
+        <v>0</v>
+      </c>
+      <c r="BK5" s="1"/>
+      <c r="BL5" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="BM5" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BN5" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="BO5" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="BP5" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="BQ5" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="6" spans="1:69">
+      <c r="A6" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6" s="2">
+        <v>2023</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="H6" s="2">
+        <v>4</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="W6" s="1"/>
+      <c r="X6" s="1"/>
+      <c r="Y6" s="1"/>
+      <c r="Z6" s="1"/>
+      <c r="AA6" s="1"/>
+      <c r="AB6" s="1"/>
+      <c r="AC6" s="1"/>
+      <c r="AD6" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="AE6" s="1"/>
+      <c r="AF6" s="1"/>
+      <c r="AG6" s="1"/>
+      <c r="AH6" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AI6" s="2">
+        <v>6</v>
+      </c>
+      <c r="AJ6" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="AK6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL6" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="AM6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN6" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="AO6" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="AP6" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="AQ6" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="AR6" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="AS6" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="AT6" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="AU6" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="AV6" s="1"/>
+      <c r="AW6" s="1"/>
+      <c r="AX6" s="1"/>
+      <c r="AY6" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="AZ6" s="1"/>
+      <c r="BA6" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BB6" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="BC6" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="BD6" s="1"/>
+      <c r="BE6" s="1"/>
+      <c r="BF6" s="1"/>
+      <c r="BG6" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="BH6" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BI6" s="1"/>
+      <c r="BJ6" s="2">
+        <v>0</v>
+      </c>
+      <c r="BK6" s="1"/>
+      <c r="BL6" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="BM6" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BN6" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="BO6" s="1"/>
+      <c r="BP6" s="1"/>
+      <c r="BQ6" s="1"/>
+    </row>
+    <row r="7" spans="1:69">
+      <c r="A7" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7" s="2">
+        <v>2023</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="H7" s="2">
+        <v>4</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="W7" s="1"/>
+      <c r="X7" s="1"/>
+      <c r="Y7" s="1"/>
+      <c r="Z7" s="1"/>
+      <c r="AA7" s="1"/>
+      <c r="AB7" s="1"/>
+      <c r="AC7" s="1"/>
+      <c r="AD7" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="AE7" s="1"/>
+      <c r="AF7" s="1"/>
+      <c r="AG7" s="1"/>
+      <c r="AH7" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AI7" s="2">
+        <v>3</v>
+      </c>
+      <c r="AJ7" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AK7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL7" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AM7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN7" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AO7" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="AP7" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="AQ7" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="AR7" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="AS7" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="AT7" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="AU7" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="AV7" s="1"/>
+      <c r="AW7" s="1"/>
+      <c r="AX7" s="1"/>
+      <c r="AY7" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="AZ7" s="1"/>
+      <c r="BA7" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BB7" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="BC7" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="BD7" s="1"/>
+      <c r="BE7" s="1"/>
+      <c r="BF7" s="1"/>
+      <c r="BG7" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BH7" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="BI7" s="1"/>
+      <c r="BJ7" s="2">
+        <v>0</v>
+      </c>
+      <c r="BK7" s="1"/>
+      <c r="BL7" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="BM7" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BN7" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="BO7" s="1"/>
+      <c r="BP7" s="1"/>
+      <c r="BQ7" s="1"/>
+    </row>
+    <row r="8" spans="1:69">
+      <c r="A8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C8" s="2">
+        <v>2023</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="H8" s="2">
+        <v>4</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="W8" s="1"/>
+      <c r="X8" s="1"/>
+      <c r="Y8" s="1"/>
+      <c r="Z8" s="1"/>
+      <c r="AA8" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AB8" s="1"/>
+      <c r="AC8" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="AD8" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="AE8" s="1"/>
+      <c r="AF8" s="1"/>
+      <c r="AG8" s="1"/>
+      <c r="AH8" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AI8" s="2">
+        <v>1</v>
+      </c>
+      <c r="AJ8" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AK8" s="2">
+        <v>2</v>
+      </c>
+      <c r="AL8" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AM8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN8" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AO8" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="AP8" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="AQ8" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AR8" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="AS8" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="AT8" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="AU8" s="1"/>
+      <c r="AV8" s="1"/>
+      <c r="AW8" s="1"/>
+      <c r="AX8" s="1"/>
+      <c r="AY8" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="AZ8" s="1"/>
+      <c r="BA8" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BB8" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="BC8" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="BD8" s="1"/>
+      <c r="BE8" s="1"/>
+      <c r="BF8" s="1"/>
+      <c r="BG8" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BH8" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="BI8" s="1"/>
+      <c r="BJ8" s="2">
+        <v>0</v>
+      </c>
+      <c r="BK8" s="1"/>
+      <c r="BL8" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="BM8" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BN8" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="BO8" s="1"/>
+      <c r="BP8" s="1"/>
+      <c r="BQ8" s="1"/>
+    </row>
+    <row r="9" spans="1:69">
+      <c r="A9" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C9" s="2">
+        <v>2023</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="H9" s="2">
+        <v>3</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="W9" s="1"/>
+      <c r="X9" s="1"/>
+      <c r="Y9" s="1"/>
+      <c r="Z9" s="1"/>
+      <c r="AA9" s="1"/>
+      <c r="AB9" s="1"/>
+      <c r="AC9" s="1"/>
+      <c r="AD9" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="AE9" s="1"/>
+      <c r="AF9" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="AG9" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="AH9" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AI9" s="2">
+        <v>2</v>
+      </c>
+      <c r="AJ9" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AK9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL9" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AM9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN9" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AO9" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="AP9" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="AQ9" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="AR9" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="AS9" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="AT9" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="AU9" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="AV9" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="AW9" s="1"/>
+      <c r="AX9" s="1"/>
+      <c r="AY9" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="AZ9" s="1"/>
+      <c r="BA9" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BB9" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="BC9" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="BD9" s="1"/>
+      <c r="BE9" s="1"/>
+      <c r="BF9" s="1"/>
+      <c r="BG9" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="BH9" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="BI9" s="1"/>
+      <c r="BJ9" s="2">
+        <v>0</v>
+      </c>
+      <c r="BK9" s="1"/>
+      <c r="BL9" s="1"/>
+      <c r="BM9" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BN9" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="BO9" s="1"/>
+      <c r="BP9" s="1"/>
+      <c r="BQ9" s="1"/>
+    </row>
+    <row r="10" spans="1:69">
+      <c r="A10" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C10" s="2">
+        <v>2023</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="H10" s="2">
+        <v>3</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="W10" s="1"/>
+      <c r="X10" s="1"/>
+      <c r="Y10" s="1"/>
+      <c r="Z10" s="1"/>
+      <c r="AA10" s="1"/>
+      <c r="AB10" s="1"/>
+      <c r="AC10" s="1"/>
+      <c r="AD10" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="AE10" s="1"/>
+      <c r="AF10" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="AG10" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="AH10" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AI10" s="2">
+        <v>1</v>
+      </c>
+      <c r="AJ10" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AK10" s="2">
+        <v>1</v>
+      </c>
+      <c r="AL10" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AM10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN10" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AO10" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="AP10" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="AQ10" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="AR10" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="AS10" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="AT10" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="AU10" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="AV10" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="AW10" s="1"/>
+      <c r="AX10" s="1"/>
+      <c r="AY10" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="AZ10" s="1"/>
+      <c r="BA10" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BB10" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="BC10" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="BD10" s="1"/>
+      <c r="BE10" s="1"/>
+      <c r="BF10" s="1"/>
+      <c r="BG10" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="BH10" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="BI10" s="1"/>
+      <c r="BJ10" s="2">
+        <v>0</v>
+      </c>
+      <c r="BK10" s="1"/>
+      <c r="BL10" s="1"/>
+      <c r="BM10" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BN10" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="BO10" s="1"/>
+      <c r="BP10" s="1"/>
+      <c r="BQ10" s="1"/>
+    </row>
+    <row r="11" spans="1:69">
+      <c r="A11" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C11" s="2">
+        <v>2023</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="H11" s="2">
+        <v>7</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="W11" s="1"/>
+      <c r="X11" s="1"/>
+      <c r="Y11" s="1"/>
+      <c r="Z11" s="1"/>
+      <c r="AA11" s="1"/>
+      <c r="AB11" s="1"/>
+      <c r="AC11" s="1"/>
+      <c r="AD11" s="1"/>
+      <c r="AE11" s="1"/>
+      <c r="AF11" s="1"/>
+      <c r="AG11" s="1"/>
+      <c r="AH11" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AI11" s="2">
+        <v>2</v>
+      </c>
+      <c r="AJ11" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AK11" s="2">
+        <v>3</v>
+      </c>
+      <c r="AL11" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AM11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN11" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AO11" s="1"/>
+      <c r="AP11" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="AQ11" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="AR11" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="AS11" s="1"/>
+      <c r="AT11" s="1"/>
+      <c r="AU11" s="1"/>
+      <c r="AV11" s="1"/>
+      <c r="AW11" s="1"/>
+      <c r="AX11" s="1"/>
+      <c r="AY11" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="AZ11" s="1"/>
+      <c r="BA11" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BB11" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="BC11" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="BD11" s="1"/>
+      <c r="BE11" s="1"/>
+      <c r="BF11" s="1"/>
+      <c r="BG11" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="BH11" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="BI11" s="1"/>
+      <c r="BJ11" s="2">
+        <v>0</v>
+      </c>
+      <c r="BK11" s="1"/>
+      <c r="BL11" s="1"/>
+      <c r="BM11" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BN11" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="BO11" s="1"/>
+      <c r="BP11" s="1"/>
+      <c r="BQ11" s="1"/>
+    </row>
+    <row r="12" spans="1:69">
+      <c r="A12" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C12" s="2">
+        <v>2023</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="H12" s="2">
+        <v>6</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="W12" s="1"/>
+      <c r="X12" s="1"/>
+      <c r="Y12" s="1"/>
+      <c r="Z12" s="1"/>
+      <c r="AA12" s="1"/>
+      <c r="AB12" s="1"/>
+      <c r="AC12" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="AD12" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="AE12" s="1"/>
+      <c r="AF12" s="1"/>
+      <c r="AG12" s="1"/>
+      <c r="AH12" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AI12" s="2">
+        <v>8</v>
+      </c>
+      <c r="AJ12" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="AK12" s="2">
+        <v>12</v>
+      </c>
+      <c r="AL12" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="AM12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN12" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="AO12" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="AP12" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="AQ12" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="AR12" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="AS12" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="AT12" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="AU12" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="AV12" s="1"/>
+      <c r="AW12" s="1"/>
+      <c r="AX12" s="1"/>
+      <c r="AY12" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="AZ12" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="BA12" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BB12" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="BC12" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="BD12" s="1"/>
+      <c r="BE12" s="1"/>
+      <c r="BF12" s="1"/>
+      <c r="BG12" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="BH12" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BI12" s="1"/>
+      <c r="BJ12" s="2">
+        <v>0</v>
+      </c>
+      <c r="BK12" s="1"/>
+      <c r="BL12" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="BM12" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BN12" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="BO12" s="1"/>
+      <c r="BP12" s="1"/>
+      <c r="BQ12" s="1"/>
+    </row>
+    <row r="13" spans="1:69">
+      <c r="A13" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C13" s="2">
+        <v>2023</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="H13" s="2">
+        <v>4</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="W13" s="1"/>
+      <c r="X13" s="1"/>
+      <c r="Y13" s="1"/>
+      <c r="Z13" s="1"/>
+      <c r="AA13" s="1"/>
+      <c r="AB13" s="1"/>
+      <c r="AC13" s="1"/>
+      <c r="AD13" s="1"/>
+      <c r="AE13" s="1"/>
+      <c r="AF13" s="1"/>
+      <c r="AG13" s="1"/>
+      <c r="AH13" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AI13" s="2">
+        <v>12</v>
+      </c>
+      <c r="AJ13" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="AK13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL13" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="AM13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN13" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="AO13" s="1"/>
+      <c r="AP13" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="AQ13" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="AR13" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="AS13" s="1"/>
+      <c r="AT13" s="1"/>
+      <c r="AU13" s="1"/>
+      <c r="AV13" s="1"/>
+      <c r="AW13" s="1"/>
+      <c r="AX13" s="1"/>
+      <c r="AY13" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="AZ13" s="1"/>
+      <c r="BA13" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BB13" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="BC13" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="BD13" s="1"/>
+      <c r="BE13" s="1"/>
+      <c r="BF13" s="1"/>
+      <c r="BG13" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="BH13" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="BI13" s="1"/>
+      <c r="BJ13" s="2">
+        <v>0</v>
+      </c>
+      <c r="BK13" s="1"/>
+      <c r="BL13" s="1"/>
+      <c r="BM13" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BN13" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="BO13" s="1"/>
+      <c r="BP13" s="1"/>
+      <c r="BQ13" s="1"/>
+    </row>
+    <row r="14" spans="1:69">
+      <c r="A14" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C14" s="2">
+        <v>2023</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="H14" s="2">
+        <v>5</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="W14" s="1"/>
+      <c r="X14" s="1"/>
+      <c r="Y14" s="1"/>
+      <c r="Z14" s="1"/>
+      <c r="AA14" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="AB14" s="1"/>
+      <c r="AC14" s="1"/>
+      <c r="AD14" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="AE14" s="1"/>
+      <c r="AF14" s="1"/>
+      <c r="AG14" s="1"/>
+      <c r="AH14" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AI14" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ14" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="AK14" s="2">
+        <v>5</v>
+      </c>
+      <c r="AL14" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="AM14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN14" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="AO14" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="AP14" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="AQ14" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AR14" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="AS14" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="AT14" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="AU14" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="AV14" s="1"/>
+      <c r="AW14" s="1"/>
+      <c r="AX14" s="1"/>
+      <c r="AY14" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="AZ14" s="1"/>
+      <c r="BA14" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BB14" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="BC14" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="BD14" s="1"/>
+      <c r="BE14" s="1"/>
+      <c r="BF14" s="1"/>
+      <c r="BG14" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="BH14" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BI14" s="1"/>
+      <c r="BJ14" s="2">
+        <v>0</v>
+      </c>
+      <c r="BK14" s="1"/>
+      <c r="BL14" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="BM14" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BN14" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="BO14" s="1"/>
+      <c r="BP14" s="1"/>
+      <c r="BQ14" s="1"/>
+    </row>
+    <row r="15" spans="1:69">
+      <c r="A15" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C15" s="2">
+        <v>2023</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="H15" s="2">
+        <v>5</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+      <c r="V15" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="W15" s="1"/>
+      <c r="X15" s="1"/>
+      <c r="Y15" s="1"/>
+      <c r="Z15" s="1"/>
+      <c r="AA15" s="1"/>
+      <c r="AB15" s="1"/>
+      <c r="AC15" s="1"/>
+      <c r="AD15" s="1"/>
+      <c r="AE15" s="1"/>
+      <c r="AF15" s="1"/>
+      <c r="AG15" s="1"/>
+      <c r="AH15" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AI15" s="2">
+        <v>12</v>
+      </c>
+      <c r="AJ15" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AK15" s="2">
+        <v>4</v>
+      </c>
+      <c r="AL15" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AM15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN15" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AO15" s="1"/>
+      <c r="AP15" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="AQ15" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="AR15" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="AS15" s="1"/>
+      <c r="AT15" s="1"/>
+      <c r="AU15" s="1"/>
+      <c r="AV15" s="1"/>
+      <c r="AW15" s="1"/>
+      <c r="AX15" s="1"/>
+      <c r="AY15" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="AZ15" s="1"/>
+      <c r="BA15" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BB15" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="BC15" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="BD15" s="1"/>
+      <c r="BE15" s="1"/>
+      <c r="BF15" s="1"/>
+      <c r="BG15" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="BH15" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="BI15" s="1"/>
+      <c r="BJ15" s="2">
+        <v>0</v>
+      </c>
+      <c r="BK15" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="BL15" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="BM15" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BN15" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="BO15" s="1"/>
+      <c r="BP15" s="1"/>
+      <c r="BQ15" s="1"/>
+    </row>
+    <row r="16" spans="1:69">
+      <c r="A16" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C16" s="2">
+        <v>2023</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="H16" s="2">
+        <v>4</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+      <c r="V16" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="W16" s="1"/>
+      <c r="X16" s="1"/>
+      <c r="Y16" s="1"/>
+      <c r="Z16" s="1"/>
+      <c r="AA16" s="1"/>
+      <c r="AB16" s="1"/>
+      <c r="AC16" s="1"/>
+      <c r="AD16" s="1"/>
+      <c r="AE16" s="1"/>
+      <c r="AF16" s="1"/>
+      <c r="AG16" s="1"/>
+      <c r="AH16" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AI16" s="2">
+        <v>6</v>
+      </c>
+      <c r="AJ16" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="AK16" s="2">
+        <v>6</v>
+      </c>
+      <c r="AL16" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="AM16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN16" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="AO16" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="AP16" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="AQ16" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="AR16" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="AS16" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="AT16" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="AU16" s="1"/>
+      <c r="AV16" s="1"/>
+      <c r="AW16" s="1"/>
+      <c r="AX16" s="1"/>
+      <c r="AY16" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="AZ16" s="1"/>
+      <c r="BA16" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BB16" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="BC16" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="BD16" s="1"/>
+      <c r="BE16" s="1"/>
+      <c r="BF16" s="1"/>
+      <c r="BG16" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="BH16" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="BI16" s="1"/>
+      <c r="BJ16" s="2">
+        <v>0</v>
+      </c>
+      <c r="BK16" s="1"/>
+      <c r="BL16" s="1"/>
+      <c r="BM16" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BN16" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="BO16" s="1"/>
+      <c r="BP16" s="1"/>
+      <c r="BQ16" s="1"/>
+    </row>
+    <row r="17" spans="1:69">
+      <c r="A17" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C17" s="2">
+        <v>2023</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="H17" s="2">
+        <v>4</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+      <c r="V17" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="W17" s="1"/>
+      <c r="X17" s="1"/>
+      <c r="Y17" s="1"/>
+      <c r="Z17" s="1"/>
+      <c r="AA17" s="1"/>
+      <c r="AB17" s="1"/>
+      <c r="AC17" s="1"/>
+      <c r="AD17" s="1"/>
+      <c r="AE17" s="1"/>
+      <c r="AF17" s="1"/>
+      <c r="AG17" s="1"/>
+      <c r="AH17" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AI17" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ17" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="AK17" s="2">
+        <v>8</v>
+      </c>
+      <c r="AL17" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="AM17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN17" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="AO17" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="AP17" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="AQ17" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="AR17" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="AS17" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="AT17" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="AU17" s="1"/>
+      <c r="AV17" s="1"/>
+      <c r="AW17" s="1"/>
+      <c r="AX17" s="1"/>
+      <c r="AY17" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="AZ17" s="1"/>
+      <c r="BA17" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BB17" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="BC17" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="BD17" s="1"/>
+      <c r="BE17" s="1"/>
+      <c r="BF17" s="1"/>
+      <c r="BG17" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="BH17" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="BI17" s="1"/>
+      <c r="BJ17" s="2">
+        <v>0</v>
+      </c>
+      <c r="BK17" s="1"/>
+      <c r="BL17" s="1"/>
+      <c r="BM17" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BN17" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="BO17" s="1"/>
+      <c r="BP17" s="1"/>
+      <c r="BQ17" s="1"/>
+    </row>
+    <row r="18" spans="1:69">
+      <c r="A18" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C18" s="2">
+        <v>2023</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="H18" s="2">
+        <v>2</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+      <c r="V18" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="W18" s="1"/>
+      <c r="X18" s="1"/>
+      <c r="Y18" s="1"/>
+      <c r="Z18" s="1"/>
+      <c r="AA18" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="AB18" s="1"/>
+      <c r="AC18" s="1"/>
+      <c r="AD18" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="AE18" s="1"/>
+      <c r="AF18" s="1"/>
+      <c r="AG18" s="1"/>
+      <c r="AH18" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AI18" s="2">
+        <v>2</v>
+      </c>
+      <c r="AJ18" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="AK18" s="2">
+        <v>4</v>
+      </c>
+      <c r="AL18" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="AM18" s="2">
+        <v>2</v>
+      </c>
+      <c r="AN18" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="AO18" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="AP18" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="AQ18" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AR18" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="AS18" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="AT18" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="AU18" s="1"/>
+      <c r="AV18" s="1"/>
+      <c r="AW18" s="1"/>
+      <c r="AX18" s="1"/>
+      <c r="AY18" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="AZ18" s="1"/>
+      <c r="BA18" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BB18" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="BC18" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="BD18" s="1"/>
+      <c r="BE18" s="1"/>
+      <c r="BF18" s="1"/>
+      <c r="BG18" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="BH18" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BI18" s="1"/>
+      <c r="BJ18" s="2">
+        <v>0</v>
+      </c>
+      <c r="BK18" s="1"/>
+      <c r="BL18" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="BM18" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BN18" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="BO18" s="1"/>
+      <c r="BP18" s="1"/>
+      <c r="BQ18" s="1"/>
+    </row>
+    <row r="19" spans="1:69">
+      <c r="A19" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C19" s="2">
+        <v>2023</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="H19" s="2">
+        <v>2</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="T19" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="U19" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="V19" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="W19" s="1"/>
+      <c r="X19" s="1"/>
+      <c r="Y19" s="1"/>
+      <c r="Z19" s="1"/>
+      <c r="AA19" s="1"/>
+      <c r="AB19" s="1"/>
+      <c r="AC19" s="1"/>
+      <c r="AD19" s="1"/>
+      <c r="AE19" s="1"/>
+      <c r="AF19" s="1"/>
+      <c r="AG19" s="1"/>
+      <c r="AH19" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AI19" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ19" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="AK19" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL19" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="AM19" s="2">
+        <v>2</v>
+      </c>
+      <c r="AN19" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="AO19" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="AP19" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="AQ19" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AR19" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="AS19" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="AT19" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="AU19" s="1"/>
+      <c r="AV19" s="1"/>
+      <c r="AW19" s="1"/>
+      <c r="AX19" s="1"/>
+      <c r="AY19" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="AZ19" s="1"/>
+      <c r="BA19" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BB19" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="BC19" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="BD19" s="1"/>
+      <c r="BE19" s="1"/>
+      <c r="BF19" s="1"/>
+      <c r="BG19" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="BH19" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BI19" s="1"/>
+      <c r="BJ19" s="2">
+        <v>0</v>
+      </c>
+      <c r="BK19" s="1"/>
+      <c r="BL19" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="BM19" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BN19" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="BO19" s="1"/>
+      <c r="BP19" s="1"/>
+      <c r="BQ19" s="1"/>
+    </row>
+    <row r="20" spans="1:69">
+      <c r="A20" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C20" s="2">
+        <v>2023</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="H20" s="2">
+        <v>3</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="T20" s="1"/>
+      <c r="U20" s="1"/>
+      <c r="V20" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="W20" s="1"/>
+      <c r="X20" s="1"/>
+      <c r="Y20" s="1"/>
+      <c r="Z20" s="1"/>
+      <c r="AA20" s="1"/>
+      <c r="AB20" s="1"/>
+      <c r="AC20" s="1"/>
+      <c r="AD20" s="1"/>
+      <c r="AE20" s="1"/>
+      <c r="AF20" s="1"/>
+      <c r="AG20" s="1"/>
+      <c r="AH20" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AI20" s="2">
+        <v>2</v>
+      </c>
+      <c r="AJ20" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AK20" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL20" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AM20" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN20" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AO20" s="1"/>
+      <c r="AP20" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="AQ20" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AR20" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="AS20" s="1"/>
+      <c r="AT20" s="1"/>
+      <c r="AU20" s="1"/>
+      <c r="AV20" s="1"/>
+      <c r="AW20" s="1"/>
+      <c r="AX20" s="1"/>
+      <c r="AY20" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="AZ20" s="1"/>
+      <c r="BA20" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BB20" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="BC20" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="BD20" s="1"/>
+      <c r="BE20" s="1"/>
+      <c r="BF20" s="1"/>
+      <c r="BG20" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BH20" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="BI20" s="1"/>
+      <c r="BJ20" s="2">
+        <v>0</v>
+      </c>
+      <c r="BK20" s="1"/>
+      <c r="BL20" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="BM20" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BN20" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="BO20" s="1"/>
+      <c r="BP20" s="1"/>
+      <c r="BQ20" s="1"/>
+    </row>
+    <row r="21" spans="1:69">
+      <c r="A21" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C21" s="2">
+        <v>2023</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="H21" s="2">
+        <v>3</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
+      <c r="S21" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="T21" s="1"/>
+      <c r="U21" s="1"/>
+      <c r="V21" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="W21" s="1"/>
+      <c r="X21" s="1"/>
+      <c r="Y21" s="1"/>
+      <c r="Z21" s="1"/>
+      <c r="AA21" s="1"/>
+      <c r="AB21" s="1"/>
+      <c r="AC21" s="1"/>
+      <c r="AD21" s="1"/>
+      <c r="AE21" s="1"/>
+      <c r="AF21" s="1"/>
+      <c r="AG21" s="1"/>
+      <c r="AH21" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AI21" s="2">
+        <v>1</v>
+      </c>
+      <c r="AJ21" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AK21" s="2">
+        <v>1</v>
+      </c>
+      <c r="AL21" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AM21" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN21" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AO21" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="AP21" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="AQ21" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AR21" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="AS21" s="1"/>
+      <c r="AT21" s="1"/>
+      <c r="AU21" s="1"/>
+      <c r="AV21" s="1"/>
+      <c r="AW21" s="1"/>
+      <c r="AX21" s="1"/>
+      <c r="AY21" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="AZ21" s="1"/>
+      <c r="BA21" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BB21" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="BC21" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="BD21" s="1"/>
+      <c r="BE21" s="1"/>
+      <c r="BF21" s="1"/>
+      <c r="BG21" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BH21" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="BI21" s="1"/>
+      <c r="BJ21" s="2">
+        <v>0</v>
+      </c>
+      <c r="BK21" s="1"/>
+      <c r="BL21" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="BM21" s="1"/>
+      <c r="BN21" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="BO21" s="1"/>
+      <c r="BP21" s="1"/>
+      <c r="BQ21" s="1"/>
+    </row>
+    <row r="22" spans="1:69">
+      <c r="A22" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C22" s="2">
+        <v>2023</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="H22" s="2">
+        <v>3</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q22" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="R22" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="S22" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="T22" s="1"/>
+      <c r="U22" s="1"/>
+      <c r="V22" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="W22" s="1"/>
+      <c r="X22" s="1"/>
+      <c r="Y22" s="1"/>
+      <c r="Z22" s="1"/>
+      <c r="AA22" s="1"/>
+      <c r="AB22" s="1"/>
+      <c r="AC22" s="1"/>
+      <c r="AD22" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="AE22" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="AF22" s="1"/>
+      <c r="AG22" s="1"/>
+      <c r="AH22" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AI22" s="2">
+        <v>6</v>
+      </c>
+      <c r="AJ22" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="AK22" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL22" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="AM22" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN22" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AO22" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="AP22" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="AQ22" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AR22" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="AS22" s="1"/>
+      <c r="AT22" s="1"/>
+      <c r="AU22" s="1"/>
+      <c r="AV22" s="1"/>
+      <c r="AW22" s="1"/>
+      <c r="AX22" s="1"/>
+      <c r="AY22" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="AZ22" s="1"/>
+      <c r="BA22" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BB22" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="BC22" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="BD22" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="BE22" s="1"/>
+      <c r="BF22" s="1"/>
+      <c r="BG22" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BH22" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="BI22" s="1"/>
+      <c r="BJ22" s="2">
+        <v>0</v>
+      </c>
+      <c r="BK22" s="1"/>
+      <c r="BL22" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="BM22" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BN22" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="BO22" s="1"/>
+      <c r="BP22" s="1"/>
+      <c r="BQ22" s="1"/>
+    </row>
+    <row r="23" spans="1:69">
+      <c r="A23" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C23" s="2">
+        <v>2023</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="H23" s="2">
+        <v>2</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
+      <c r="S23" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="T23" s="1"/>
+      <c r="U23" s="1"/>
+      <c r="V23" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="W23" s="1"/>
+      <c r="X23" s="1"/>
+      <c r="Y23" s="1"/>
+      <c r="Z23" s="1"/>
+      <c r="AA23" s="1"/>
+      <c r="AB23" s="1"/>
+      <c r="AC23" s="1"/>
+      <c r="AD23" s="1"/>
+      <c r="AE23" s="1"/>
+      <c r="AF23" s="1"/>
+      <c r="AG23" s="1"/>
+      <c r="AH23" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AI23" s="2">
+        <v>1</v>
+      </c>
+      <c r="AJ23" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AK23" s="2">
+        <v>1</v>
+      </c>
+      <c r="AL23" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AM23" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN23" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AO23" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="AP23" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="AQ23" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AR23" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="AS23" s="1"/>
+      <c r="AT23" s="1"/>
+      <c r="AU23" s="1"/>
+      <c r="AV23" s="1"/>
+      <c r="AW23" s="1"/>
+      <c r="AX23" s="1"/>
+      <c r="AY23" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="AZ23" s="1"/>
+      <c r="BA23" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BB23" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="BC23" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="BD23" s="1"/>
+      <c r="BE23" s="1"/>
+      <c r="BF23" s="1"/>
+      <c r="BG23" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BH23" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="BI23" s="1"/>
+      <c r="BJ23" s="2">
+        <v>0</v>
+      </c>
+      <c r="BK23" s="1"/>
+      <c r="BL23" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="BM23" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BN23" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="BO23" s="1"/>
+      <c r="BP23" s="1"/>
+      <c r="BQ23" s="1"/>
+    </row>
+    <row r="24" spans="1:69">
+      <c r="A24" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C24" s="2">
+        <v>2023</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="H24" s="2">
+        <v>2</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
+      <c r="S24" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="T24" s="1"/>
+      <c r="U24" s="1"/>
+      <c r="V24" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="W24" s="1"/>
+      <c r="X24" s="1"/>
+      <c r="Y24" s="1"/>
+      <c r="Z24" s="1"/>
+      <c r="AA24" s="1"/>
+      <c r="AB24" s="1"/>
+      <c r="AC24" s="1"/>
+      <c r="AD24" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AE24" s="1"/>
+      <c r="AF24" s="1"/>
+      <c r="AG24" s="1"/>
+      <c r="AH24" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AI24" s="2">
+        <v>3</v>
+      </c>
+      <c r="AJ24" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AK24" s="2">
+        <v>2</v>
+      </c>
+      <c r="AL24" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AM24" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN24" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AO24" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="AP24" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="AQ24" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AR24" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="AS24" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="AT24" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="AU24" s="1"/>
+      <c r="AV24" s="1"/>
+      <c r="AW24" s="1"/>
+      <c r="AX24" s="1"/>
+      <c r="AY24" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="AZ24" s="1"/>
+      <c r="BA24" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BB24" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="BC24" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="BD24" s="1"/>
+      <c r="BE24" s="1"/>
+      <c r="BF24" s="1"/>
+      <c r="BG24" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="BH24" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="BI24" s="1"/>
+      <c r="BJ24" s="2">
+        <v>0</v>
+      </c>
+      <c r="BK24" s="1"/>
+      <c r="BL24" s="1"/>
+      <c r="BM24" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BN24" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="BO24" s="1"/>
+      <c r="BP24" s="1"/>
+      <c r="BQ24" s="1"/>
+    </row>
+    <row r="25" spans="1:69">
+      <c r="A25" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C25" s="2">
+        <v>2023</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="H25" s="2">
+        <v>2</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1"/>
+      <c r="S25" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="T25" s="1"/>
+      <c r="U25" s="1"/>
+      <c r="V25" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="W25" s="1"/>
+      <c r="X25" s="1"/>
+      <c r="Y25" s="1"/>
+      <c r="Z25" s="1"/>
+      <c r="AA25" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="AB25" s="1"/>
+      <c r="AC25" s="1"/>
+      <c r="AD25" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="AE25" s="1"/>
+      <c r="AF25" s="1"/>
+      <c r="AG25" s="1"/>
+      <c r="AH25" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AI25" s="2">
+        <v>1</v>
+      </c>
+      <c r="AJ25" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AK25" s="2">
+        <v>1</v>
+      </c>
+      <c r="AL25" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AM25" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN25" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AO25" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="AP25" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="AQ25" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AR25" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="AS25" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="AT25" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="AU25" s="1"/>
+      <c r="AV25" s="1"/>
+      <c r="AW25" s="1"/>
+      <c r="AX25" s="1"/>
+      <c r="AY25" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="AZ25" s="1"/>
+      <c r="BA25" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BB25" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="BC25" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="BD25" s="1"/>
+      <c r="BE25" s="1"/>
+      <c r="BF25" s="1"/>
+      <c r="BG25" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BH25" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="BI25" s="1"/>
+      <c r="BJ25" s="2">
+        <v>0</v>
+      </c>
+      <c r="BK25" s="1"/>
+      <c r="BL25" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="BM25" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BN25" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="BO25" s="1"/>
+      <c r="BP25" s="1"/>
+      <c r="BQ25" s="1"/>
+    </row>
+    <row r="26" spans="1:69">
+      <c r="A26" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C26" s="2">
+        <v>2023</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="H26" s="2">
+        <v>3</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
+      <c r="S26" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="T26" s="1"/>
+      <c r="U26" s="1"/>
+      <c r="V26" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="W26" s="1"/>
+      <c r="X26" s="1"/>
+      <c r="Y26" s="1"/>
+      <c r="Z26" s="1"/>
+      <c r="AA26" s="1"/>
+      <c r="AB26" s="1"/>
+      <c r="AC26" s="1"/>
+      <c r="AD26" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="AE26" s="1"/>
+      <c r="AF26" s="1"/>
+      <c r="AG26" s="1"/>
+      <c r="AH26" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AI26" s="2">
+        <v>3</v>
+      </c>
+      <c r="AJ26" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AK26" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL26" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AM26" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN26" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AO26" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="AP26" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="AQ26" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AR26" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="AS26" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="AT26" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="AU26" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="AV26" s="1"/>
+      <c r="AW26" s="1"/>
+      <c r="AX26" s="1"/>
+      <c r="AY26" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="AZ26" s="1"/>
+      <c r="BA26" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BB26" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="BC26" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="BD26" s="1"/>
+      <c r="BE26" s="1"/>
+      <c r="BF26" s="1"/>
+      <c r="BG26" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BH26" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="BI26" s="1"/>
+      <c r="BJ26" s="2">
+        <v>0</v>
+      </c>
+      <c r="BK26" s="1"/>
+      <c r="BL26" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="BM26" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BN26" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="BO26" s="1"/>
+      <c r="BP26" s="1"/>
+      <c r="BQ26" s="1"/>
+    </row>
+    <row r="27" spans="1:69">
+      <c r="A27" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C27" s="2">
+        <v>2023</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="H27" s="2">
+        <v>6</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="1"/>
+      <c r="S27" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="T27" s="1"/>
+      <c r="U27" s="1"/>
+      <c r="V27" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="W27" s="1"/>
+      <c r="X27" s="1"/>
+      <c r="Y27" s="1"/>
+      <c r="Z27" s="1"/>
+      <c r="AA27" s="1"/>
+      <c r="AB27" s="1"/>
+      <c r="AC27" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="AD27" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="AE27" s="1"/>
+      <c r="AF27" s="1"/>
+      <c r="AG27" s="1"/>
+      <c r="AH27" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AI27" s="2">
+        <v>2</v>
+      </c>
+      <c r="AJ27" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AK27" s="2">
+        <v>2</v>
+      </c>
+      <c r="AL27" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AM27" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN27" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AO27" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="AP27" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="AQ27" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="AR27" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="AS27" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="AT27" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="AU27" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="AV27" s="1"/>
+      <c r="AW27" s="1"/>
+      <c r="AX27" s="1"/>
+      <c r="AY27" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="AZ27" s="1"/>
+      <c r="BA27" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BB27" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="BC27" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="BD27" s="1"/>
+      <c r="BE27" s="1"/>
+      <c r="BF27" s="1"/>
+      <c r="BG27" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BH27" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="BI27" s="1"/>
+      <c r="BJ27" s="2">
+        <v>0</v>
+      </c>
+      <c r="BK27" s="1"/>
+      <c r="BL27" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="BM27" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BN27" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="BO27" s="1"/>
+      <c r="BP27" s="1"/>
+      <c r="BQ27" s="1"/>
+    </row>
+    <row r="28" spans="1:69">
+      <c r="A28" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C28" s="2">
+        <v>2023</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="H28" s="2">
+        <v>6</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+      <c r="S28" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="T28" s="1"/>
+      <c r="U28" s="1"/>
+      <c r="V28" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="W28" s="1"/>
+      <c r="X28" s="1"/>
+      <c r="Y28" s="1"/>
+      <c r="Z28" s="1"/>
+      <c r="AA28" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="AB28" s="1"/>
+      <c r="AC28" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AD28" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="AE28" s="1"/>
+      <c r="AF28" s="1"/>
+      <c r="AG28" s="1"/>
+      <c r="AH28" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AI28" s="2">
+        <v>3</v>
+      </c>
+      <c r="AJ28" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AK28" s="2">
+        <v>3</v>
+      </c>
+      <c r="AL28" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AM28" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN28" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AO28" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="AP28" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="AQ28" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="AR28" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="AS28" s="1"/>
+      <c r="AT28" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="AU28" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="AV28" s="1"/>
+      <c r="AW28" s="1"/>
+      <c r="AX28" s="1"/>
+      <c r="AY28" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="AZ28" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="BA28" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BB28" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="BC28" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="BD28" s="1"/>
+      <c r="BE28" s="1"/>
+      <c r="BF28" s="1"/>
+      <c r="BG28" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BH28" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="BI28" s="1"/>
+      <c r="BJ28" s="2">
+        <v>0</v>
+      </c>
+      <c r="BK28" s="1"/>
+      <c r="BL28" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="BM28" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BN28" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="BO28" s="1"/>
+      <c r="BP28" s="1"/>
+      <c r="BQ28" s="1"/>
+    </row>
+    <row r="29" spans="1:69">
+      <c r="A29" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C29" s="2">
+        <v>2023</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="H29" s="2">
+        <v>3</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="1"/>
+      <c r="S29" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="T29" s="1"/>
+      <c r="U29" s="1"/>
+      <c r="V29" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="W29" s="1"/>
+      <c r="X29" s="1"/>
+      <c r="Y29" s="1"/>
+      <c r="Z29" s="1"/>
+      <c r="AA29" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="AB29" s="1"/>
+      <c r="AC29" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="AD29" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="AE29" s="1"/>
+      <c r="AF29" s="1"/>
+      <c r="AG29" s="1"/>
+      <c r="AH29" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AI29" s="2">
+        <v>2</v>
+      </c>
+      <c r="AJ29" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AK29" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL29" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AM29" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN29" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AO29" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="AP29" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="AQ29" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AR29" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="AS29" s="1"/>
+      <c r="AT29" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="AU29" s="1"/>
+      <c r="AV29" s="1"/>
+      <c r="AW29" s="1"/>
+      <c r="AX29" s="1"/>
+      <c r="AY29" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="AZ29" s="1"/>
+      <c r="BA29" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BB29" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="BC29" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="BD29" s="1"/>
+      <c r="BE29" s="1"/>
+      <c r="BF29" s="1"/>
+      <c r="BG29" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BH29" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="BI29" s="1"/>
+      <c r="BJ29" s="2">
+        <v>0</v>
+      </c>
+      <c r="BK29" s="1"/>
+      <c r="BL29" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="BM29" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BN29" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="BO29" s="1"/>
+      <c r="BP29" s="1"/>
+      <c r="BQ29" s="1"/>
+    </row>
+    <row r="30" spans="1:69">
+      <c r="A30" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C30" s="2">
+        <v>2023</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="H30" s="2">
+        <v>4</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="1"/>
+      <c r="S30" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="T30" s="1"/>
+      <c r="U30" s="1"/>
+      <c r="V30" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="W30" s="1"/>
+      <c r="X30" s="1"/>
+      <c r="Y30" s="1"/>
+      <c r="Z30" s="1"/>
+      <c r="AA30" s="1"/>
+      <c r="AB30" s="1"/>
+      <c r="AC30" s="1"/>
+      <c r="AD30" s="1"/>
+      <c r="AE30" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="AF30" s="1"/>
+      <c r="AG30" s="1"/>
+      <c r="AH30" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AI30" s="2">
+        <v>2</v>
+      </c>
+      <c r="AJ30" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AK30" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL30" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AM30" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN30" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AO30" s="1"/>
+      <c r="AP30" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="AQ30" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AR30" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="AS30" s="1"/>
+      <c r="AT30" s="1"/>
+      <c r="AU30" s="1"/>
+      <c r="AV30" s="1"/>
+      <c r="AW30" s="1"/>
+      <c r="AX30" s="1"/>
+      <c r="AY30" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="AZ30" s="1"/>
+      <c r="BA30" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BB30" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="BC30" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="BD30" s="1"/>
+      <c r="BE30" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="BF30" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="BG30" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="BH30" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="BI30" s="1"/>
+      <c r="BJ30" s="2">
+        <v>0</v>
+      </c>
+      <c r="BK30" s="1"/>
+      <c r="BL30" s="1"/>
+      <c r="BM30" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BN30" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="BO30" s="1"/>
+      <c r="BP30" s="1"/>
+      <c r="BQ30" s="1"/>
+    </row>
+    <row r="31" spans="1:69">
+      <c r="A31" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C31" s="2">
+        <v>2023</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="H31" s="2">
+        <v>5</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q31" s="1"/>
+      <c r="R31" s="1"/>
+      <c r="S31" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="T31" s="1"/>
+      <c r="U31" s="1"/>
+      <c r="V31" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="W31" s="1"/>
+      <c r="X31" s="1"/>
+      <c r="Y31" s="1"/>
+      <c r="Z31" s="1"/>
+      <c r="AA31" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="AB31" s="1"/>
+      <c r="AC31" s="1"/>
+      <c r="AD31" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="AE31" s="1"/>
+      <c r="AF31" s="1"/>
+      <c r="AG31" s="1"/>
+      <c r="AH31" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AI31" s="2">
+        <v>2</v>
+      </c>
+      <c r="AJ31" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AK31" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL31" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AM31" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN31" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AO31" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="AP31" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="AQ31" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AR31" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="AS31" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="AT31" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="AU31" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="AV31" s="1"/>
+      <c r="AW31" s="1"/>
+      <c r="AX31" s="1"/>
+      <c r="AY31" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="AZ31" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="BA31" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BB31" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="BC31" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="BD31" s="1"/>
+      <c r="BE31" s="1"/>
+      <c r="BF31" s="1"/>
+      <c r="BG31" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BH31" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="BI31" s="1"/>
+      <c r="BJ31" s="2">
+        <v>0</v>
+      </c>
+      <c r="BK31" s="1"/>
+      <c r="BL31" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="BM31" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BN31" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="BO31" s="1"/>
+      <c r="BP31" s="1"/>
+      <c r="BQ31" s="1"/>
+    </row>
+    <row r="32" spans="1:69">
+      <c r="A32" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C32" s="2">
+        <v>2023</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="H32" s="2">
+        <v>5</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q32" s="1"/>
+      <c r="R32" s="1"/>
+      <c r="S32" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="T32" s="1"/>
+      <c r="U32" s="1"/>
+      <c r="V32" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="W32" s="1"/>
+      <c r="X32" s="1"/>
+      <c r="Y32" s="1"/>
+      <c r="Z32" s="1"/>
+      <c r="AA32" s="1"/>
+      <c r="AB32" s="1"/>
+      <c r="AC32" s="1"/>
+      <c r="AD32" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="AE32" s="1"/>
+      <c r="AF32" s="1"/>
+      <c r="AG32" s="1"/>
+      <c r="AH32" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AI32" s="2">
+        <v>3</v>
+      </c>
+      <c r="AJ32" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AK32" s="2">
+        <v>3</v>
+      </c>
+      <c r="AL32" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AM32" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN32" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AO32" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="AP32" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="AQ32" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="AR32" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="AS32" s="1"/>
+      <c r="AT32" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="AU32" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="AV32" s="1"/>
+      <c r="AW32" s="1"/>
+      <c r="AX32" s="1"/>
+      <c r="AY32" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="AZ32" s="1"/>
+      <c r="BA32" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BB32" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="BC32" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="BD32" s="1"/>
+      <c r="BE32" s="1"/>
+      <c r="BF32" s="1"/>
+      <c r="BG32" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BH32" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="BI32" s="1"/>
+      <c r="BJ32" s="2">
+        <v>0</v>
+      </c>
+      <c r="BK32" s="1"/>
+      <c r="BL32" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="BM32" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BN32" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="BO32" s="1"/>
+      <c r="BP32" s="1"/>
+      <c r="BQ32" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/results/chybi_prednasejici.xlsx
+++ b/results/chybi_prednasejici.xlsx
@@ -370,10 +370,10 @@
     <t>PVK - Automatizační systémy II</t>
   </si>
   <si>
+    <t>PVK-Kvantová fyzika II</t>
+  </si>
+  <si>
     <t>Evoluční biologie</t>
-  </si>
-  <si>
-    <t>PVK-Kvantová fyzika II</t>
   </si>
   <si>
     <t>PVK - Mikroprocesorová technika</t>
@@ -3787,7 +3787,7 @@
     </row>
     <row r="14" spans="1:69">
       <c r="A14" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>89</v>
@@ -3814,14 +3814,10 @@
         <v>140</v>
       </c>
       <c r="J14" s="1"/>
-      <c r="K14" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>153</v>
-      </c>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
       <c r="M14" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
@@ -3842,59 +3838,47 @@
       <c r="X14" s="1"/>
       <c r="Y14" s="1"/>
       <c r="Z14" s="1"/>
-      <c r="AA14" s="1" t="s">
-        <v>173</v>
-      </c>
+      <c r="AA14" s="1"/>
       <c r="AB14" s="1"/>
       <c r="AC14" s="1"/>
-      <c r="AD14" s="1" t="s">
-        <v>192</v>
-      </c>
+      <c r="AD14" s="1"/>
       <c r="AE14" s="1"/>
       <c r="AF14" s="1"/>
       <c r="AG14" s="1"/>
       <c r="AH14" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AI14" s="2">
+        <v>12</v>
+      </c>
+      <c r="AJ14" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AK14" s="2">
         <v>4</v>
       </c>
-      <c r="AJ14" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="AK14" s="2">
-        <v>5</v>
-      </c>
       <c r="AL14" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AM14" s="2">
         <v>0</v>
       </c>
       <c r="AN14" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="AO14" s="1" t="s">
-        <v>215</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="AO14" s="1"/>
       <c r="AP14" s="1" t="s">
         <v>229</v>
       </c>
       <c r="AQ14" s="1" t="s">
-        <v>140</v>
+        <v>230</v>
       </c>
       <c r="AR14" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="AS14" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="AT14" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="AU14" s="1" t="s">
-        <v>270</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="AS14" s="1"/>
+      <c r="AT14" s="1"/>
+      <c r="AU14" s="1"/>
       <c r="AV14" s="1"/>
       <c r="AW14" s="1"/>
       <c r="AX14" s="1"/>
@@ -3918,15 +3902,17 @@
         <v>139</v>
       </c>
       <c r="BH14" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="BI14" s="1"/>
       <c r="BJ14" s="2">
         <v>0</v>
       </c>
-      <c r="BK14" s="1"/>
+      <c r="BK14" s="1" t="s">
+        <v>279</v>
+      </c>
       <c r="BL14" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="BM14" s="1" t="s">
         <v>138</v>
@@ -3940,7 +3926,7 @@
     </row>
     <row r="15" spans="1:69">
       <c r="A15" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>89</v>
@@ -3967,10 +3953,14 @@
         <v>140</v>
       </c>
       <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
+      <c r="K15" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>153</v>
+      </c>
       <c r="M15" s="1" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
@@ -3991,47 +3981,59 @@
       <c r="X15" s="1"/>
       <c r="Y15" s="1"/>
       <c r="Z15" s="1"/>
-      <c r="AA15" s="1"/>
+      <c r="AA15" s="1" t="s">
+        <v>173</v>
+      </c>
       <c r="AB15" s="1"/>
       <c r="AC15" s="1"/>
-      <c r="AD15" s="1"/>
+      <c r="AD15" s="1" t="s">
+        <v>192</v>
+      </c>
       <c r="AE15" s="1"/>
       <c r="AF15" s="1"/>
       <c r="AG15" s="1"/>
       <c r="AH15" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AI15" s="2">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="AJ15" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AK15" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AL15" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AM15" s="2">
         <v>0</v>
       </c>
       <c r="AN15" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="AO15" s="1"/>
+        <v>205</v>
+      </c>
+      <c r="AO15" s="1" t="s">
+        <v>215</v>
+      </c>
       <c r="AP15" s="1" t="s">
         <v>229</v>
       </c>
       <c r="AQ15" s="1" t="s">
-        <v>230</v>
+        <v>140</v>
       </c>
       <c r="AR15" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="AS15" s="1"/>
-      <c r="AT15" s="1"/>
-      <c r="AU15" s="1"/>
+        <v>232</v>
+      </c>
+      <c r="AS15" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="AT15" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="AU15" s="1" t="s">
+        <v>270</v>
+      </c>
       <c r="AV15" s="1"/>
       <c r="AW15" s="1"/>
       <c r="AX15" s="1"/>
@@ -4055,17 +4057,15 @@
         <v>139</v>
       </c>
       <c r="BH15" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="BI15" s="1"/>
       <c r="BJ15" s="2">
         <v>0</v>
       </c>
-      <c r="BK15" s="1" t="s">
+      <c r="BK15" s="1"/>
+      <c r="BL15" s="1" t="s">
         <v>279</v>
-      </c>
-      <c r="BL15" s="1" t="s">
-        <v>280</v>
       </c>
       <c r="BM15" s="1" t="s">
         <v>138</v>
@@ -6287,10 +6287,10 @@
         <v>2023</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>139</v>

--- a/results/chybi_prednasejici.xlsx
+++ b/results/chybi_prednasejici.xlsx
@@ -370,10 +370,10 @@
     <t>PVK - Automatizační systémy II</t>
   </si>
   <si>
+    <t>Evoluční biologie</t>
+  </si>
+  <si>
     <t>PVK-Kvantová fyzika II</t>
-  </si>
-  <si>
-    <t>Evoluční biologie</t>
   </si>
   <si>
     <t>PVK - Mikroprocesorová technika</t>
@@ -3787,7 +3787,7 @@
     </row>
     <row r="14" spans="1:69">
       <c r="A14" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>89</v>
@@ -3814,10 +3814,14 @@
         <v>140</v>
       </c>
       <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
+      <c r="K14" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>153</v>
+      </c>
       <c r="M14" s="1" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
@@ -3838,47 +3842,59 @@
       <c r="X14" s="1"/>
       <c r="Y14" s="1"/>
       <c r="Z14" s="1"/>
-      <c r="AA14" s="1"/>
+      <c r="AA14" s="1" t="s">
+        <v>173</v>
+      </c>
       <c r="AB14" s="1"/>
       <c r="AC14" s="1"/>
-      <c r="AD14" s="1"/>
+      <c r="AD14" s="1" t="s">
+        <v>192</v>
+      </c>
       <c r="AE14" s="1"/>
       <c r="AF14" s="1"/>
       <c r="AG14" s="1"/>
       <c r="AH14" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AI14" s="2">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="AJ14" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AK14" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AL14" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AM14" s="2">
         <v>0</v>
       </c>
       <c r="AN14" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="AO14" s="1"/>
+        <v>205</v>
+      </c>
+      <c r="AO14" s="1" t="s">
+        <v>215</v>
+      </c>
       <c r="AP14" s="1" t="s">
         <v>229</v>
       </c>
       <c r="AQ14" s="1" t="s">
-        <v>230</v>
+        <v>140</v>
       </c>
       <c r="AR14" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="AS14" s="1"/>
-      <c r="AT14" s="1"/>
-      <c r="AU14" s="1"/>
+        <v>232</v>
+      </c>
+      <c r="AS14" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="AT14" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="AU14" s="1" t="s">
+        <v>270</v>
+      </c>
       <c r="AV14" s="1"/>
       <c r="AW14" s="1"/>
       <c r="AX14" s="1"/>
@@ -3902,17 +3918,15 @@
         <v>139</v>
       </c>
       <c r="BH14" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="BI14" s="1"/>
       <c r="BJ14" s="2">
         <v>0</v>
       </c>
-      <c r="BK14" s="1" t="s">
+      <c r="BK14" s="1"/>
+      <c r="BL14" s="1" t="s">
         <v>279</v>
-      </c>
-      <c r="BL14" s="1" t="s">
-        <v>280</v>
       </c>
       <c r="BM14" s="1" t="s">
         <v>138</v>
@@ -3926,7 +3940,7 @@
     </row>
     <row r="15" spans="1:69">
       <c r="A15" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>89</v>
@@ -3953,14 +3967,10 @@
         <v>140</v>
       </c>
       <c r="J15" s="1"/>
-      <c r="K15" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>153</v>
-      </c>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
       <c r="M15" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
@@ -3981,59 +3991,47 @@
       <c r="X15" s="1"/>
       <c r="Y15" s="1"/>
       <c r="Z15" s="1"/>
-      <c r="AA15" s="1" t="s">
-        <v>173</v>
-      </c>
+      <c r="AA15" s="1"/>
       <c r="AB15" s="1"/>
       <c r="AC15" s="1"/>
-      <c r="AD15" s="1" t="s">
-        <v>192</v>
-      </c>
+      <c r="AD15" s="1"/>
       <c r="AE15" s="1"/>
       <c r="AF15" s="1"/>
       <c r="AG15" s="1"/>
       <c r="AH15" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AI15" s="2">
+        <v>12</v>
+      </c>
+      <c r="AJ15" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AK15" s="2">
         <v>4</v>
       </c>
-      <c r="AJ15" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="AK15" s="2">
-        <v>5</v>
-      </c>
       <c r="AL15" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AM15" s="2">
         <v>0</v>
       </c>
       <c r="AN15" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="AO15" s="1" t="s">
-        <v>215</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="AO15" s="1"/>
       <c r="AP15" s="1" t="s">
         <v>229</v>
       </c>
       <c r="AQ15" s="1" t="s">
-        <v>140</v>
+        <v>230</v>
       </c>
       <c r="AR15" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="AS15" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="AT15" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="AU15" s="1" t="s">
-        <v>270</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="AS15" s="1"/>
+      <c r="AT15" s="1"/>
+      <c r="AU15" s="1"/>
       <c r="AV15" s="1"/>
       <c r="AW15" s="1"/>
       <c r="AX15" s="1"/>
@@ -4057,15 +4055,17 @@
         <v>139</v>
       </c>
       <c r="BH15" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="BI15" s="1"/>
       <c r="BJ15" s="2">
         <v>0</v>
       </c>
-      <c r="BK15" s="1"/>
+      <c r="BK15" s="1" t="s">
+        <v>279</v>
+      </c>
       <c r="BL15" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="BM15" s="1" t="s">
         <v>138</v>
@@ -6287,10 +6287,10 @@
         <v>2023</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>139</v>
